--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb1ac1d568b26fa6/Documentos/Github/OCB_Nextion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="13_ncr:1_{13B1AE9B-FBCA-4719-B508-737F3142BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65F85CC4-F191-4FFB-9061-8C9A3538B38B}"/>
+  <xr:revisionPtr revIDLastSave="639" documentId="13_ncr:1_{13B1AE9B-FBCA-4719-B508-737F3142BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91F7DE5B-C3A4-488B-9FA9-55CAFD89DE8A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C3A8E743-1D4C-4CD8-88C3-786C813AB08A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Planilha2" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Objetos Nextion'!$A$2:$N$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Objetos Nextion'!$A$2:$R$160</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="296">
   <si>
     <t>Tela</t>
   </si>
@@ -912,13 +912,28 @@
   </si>
   <si>
     <t>MHz</t>
+  </si>
+  <si>
+    <t>ObjetoReferencia</t>
+  </si>
+  <si>
+    <t>Attatch</t>
+  </si>
+  <si>
+    <t>enviaProgramação</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>PopCallBack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,10 +963,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,7 +976,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -987,6 +998,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,16 +1055,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1420,5064 +1435,5641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B348617-EA30-4965-BF17-B2EA19465609}">
-  <dimension ref="A1:O160"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="4.5546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="81" style="16" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1"/>
-    <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="81" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1"/>
+    <col min="13" max="13" width="12.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1">
-      <c r="D1" s="4"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="13" t="s">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="K1" s="12"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1">
+      <c r="R1" s="14"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3"/>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>281</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>284</v>
       </c>
-      <c r="G3" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F3," O_",A3,"_",E3,REPT(" ",(20-(LEN(F3)+LEN(E3))))," = Nex",F3,"(",A3,", ",D3,", """,E3,""");")</f>
+      <c r="K3" s="13" t="str">
+        <f t="shared" ref="K3:K34" si="0">_xlfn.CONCAT("Nex",J3," O_",A3,"_",F3,REPT(" ",(20-(LEN(J3)+LEN(F3))))," = Nex",J3,"(",A3,", ",E3,", """,F3,""");")</f>
         <v>NexPage O_0_abertura         = NexPage(0, 0, "abertura");</v>
       </c>
-      <c r="H3" t="s">
-        <v>202</v>
-      </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="L3" t="s">
+        <v>202</v>
+      </c>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>281</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4"/>
+      <c r="D4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F4," O_",A4,"_",E4,REPT(" ",(20-(LEN(F4)+LEN(E4))))," = Nex",F4,"(",A4,", ",D4,", """,E4,""");")</f>
+      <c r="K4" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexHotspot O_0_m0            = NexHotspot(0, 1, "m0");</v>
       </c>
-      <c r="H4" t="s">
-        <v>202</v>
-      </c>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="L4" t="s">
+        <v>202</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5"/>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>282</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F5," O_",A5,"_",E5,REPT(" ",(20-(LEN(F5)+LEN(E5))))," = Nex",F5,"(",A5,", ",D5,", """,E5,""");")</f>
+      <c r="K5" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexPage O_1_menu             = NexPage(1, 0, "menu");</v>
       </c>
-      <c r="H5" t="s">
-        <v>202</v>
-      </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="L5" t="s">
+        <v>202</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>282</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6"/>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F6," O_",A6,"_",E6,REPT(" ",(20-(LEN(F6)+LEN(E6))))," = Nex",F6,"(",A6,", ",D6,", """,E6,""");")</f>
+      <c r="K6" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexText O_1_tx_dia           = NexText(1, 1, "tx_dia");</v>
       </c>
-      <c r="H6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>282</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7"/>
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F7," O_",A7,"_",E7,REPT(" ",(20-(LEN(F7)+LEN(E7))))," = Nex",F7,"(",A7,", ",D7,", """,E7,""");")</f>
+      <c r="K7" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexText O_1_tx_mes           = NexText(1, 2, "tx_mes");</v>
       </c>
-      <c r="H7" t="s">
-        <v>202</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>282</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8"/>
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F8," O_",A8,"_",E8,REPT(" ",(20-(LEN(F8)+LEN(E8))))," = Nex",F8,"(",A8,", ",D8,", """,E8,""");")</f>
+      <c r="K8" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexText O_1_tx_diasemana     = NexText(1, 3, "tx_diasemana");</v>
       </c>
-      <c r="H8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" t="s">
+        <v>202</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>282</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9"/>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F9," O_",A9,"_",E9,REPT(" ",(20-(LEN(F9)+LEN(E9))))," = Nex",F9,"(",A9,", ",D9,", """,E9,""");")</f>
+      <c r="K9" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexText O_1_tx_hora          = NexText(1, 4, "tx_hora");</v>
       </c>
-      <c r="H9" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="L9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>282</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10"/>
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F10," O_",A10,"_",E10,REPT(" ",(20-(LEN(F10)+LEN(E10))))," = Nex",F10,"(",A10,", ",D10,", """,E10,""");")</f>
+      <c r="K10" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexText O_1_tx_minuto        = NexText(1, 5, "tx_minuto");</v>
       </c>
-      <c r="H10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="L10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>282</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11"/>
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F11," O_",A11,"_",E11,REPT(" ",(20-(LEN(F11)+LEN(E11))))," = Nex",F11,"(",A11,", ",D11,", """,E11,""");")</f>
+      <c r="K11" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexGauge O_1_ma_pressOleo    = NexGauge(1, 7, "ma_pressOleo");</v>
       </c>
-      <c r="H11" t="s">
-        <v>202</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="L11" t="s">
+        <v>202</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K11" s="1">
-        <v>210</v>
-      </c>
-      <c r="L11" s="1">
-        <v>145</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>5</v>
       </c>
       <c r="O11" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="1">
+        <v>145</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>5</v>
+      </c>
+      <c r="S11" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>282</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12"/>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F12," O_",A12,"_",E12,REPT(" ",(20-(LEN(F12)+LEN(E12))))," = Nex",F12,"(",A12,", ",D12,", """,E12,""");")</f>
+      <c r="K12" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexGauge O_1_ma_tempOleo     = NexGauge(1, 8, "ma_tempOleo");</v>
       </c>
-      <c r="H12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="L12" t="s">
+        <v>202</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K12" s="1">
-        <v>330</v>
-      </c>
-      <c r="L12" s="1">
-        <v>35</v>
-      </c>
-      <c r="M12" s="1">
-        <v>60</v>
-      </c>
-      <c r="N12" s="1">
-        <v>150</v>
       </c>
       <c r="O12" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>60</v>
+      </c>
+      <c r="R12" s="1">
+        <v>150</v>
+      </c>
+      <c r="S12" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>282</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13"/>
+      <c r="D13" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F13," O_",A13,"_",E13,REPT(" ",(20-(LEN(F13)+LEN(E13))))," = Nex",F13,"(",A13,", ",D13,", """,E13,""");")</f>
+      <c r="K13" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexGauge O_1_ma_combustivel  = NexGauge(1, 9, "ma_combustivel");</v>
       </c>
-      <c r="H13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="L13" t="s">
+        <v>202</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>180</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="O13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="1">
+        <v>180</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>282</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14"/>
+      <c r="D14" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="F14" t="s">
+      <c r="J14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F14," O_",A14,"_",E14,REPT(" ",(20-(LEN(F14)+LEN(E14))))," = Nex",F14,"(",A14,", ",D14,", """,E14,""");")</f>
+      <c r="K14" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexHotspot O_1_bt_setup      = NexHotspot(1, 10, "bt_setup");</v>
       </c>
-      <c r="H14" t="s">
-        <v>202</v>
-      </c>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="L14" t="s">
+        <v>202</v>
+      </c>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>282</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15"/>
+      <c r="D15" t="s">
         <v>263</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
+      <c r="J15" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F15," O_",A15,"_",E15,REPT(" ",(20-(LEN(F15)+LEN(E15))))," = Nex",F15,"(",A15,", ",D15,", """,E15,""");")</f>
+      <c r="K15" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexHotspot O_1_bt_fone       = NexHotspot(1, 11, "bt_fone");</v>
       </c>
-      <c r="H15" t="s">
-        <v>202</v>
-      </c>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="L15" t="s">
+        <v>202</v>
+      </c>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>282</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16"/>
+      <c r="D16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>12</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F16," O_",A16,"_",E16,REPT(" ",(20-(LEN(F16)+LEN(E16))))," = Nex",F16,"(",A16,", ",D16,", """,E16,""");")</f>
+      <c r="K16" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexText O_1_tx_interna       = NexText(1, 12, "tx_interna");</v>
       </c>
-      <c r="H16" t="s">
-        <v>202</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="L16" t="s">
+        <v>202</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>282</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17"/>
+      <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>13</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F17," O_",A17,"_",E17,REPT(" ",(20-(LEN(F17)+LEN(E17))))," = Nex",F17,"(",A17,", ",D17,", """,E17,""");")</f>
+      <c r="K17" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexText O_1_tx_int_min       = NexText(1, 13, "tx_int_min");</v>
       </c>
-      <c r="H17" t="s">
-        <v>202</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="L17" t="s">
+        <v>202</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>282</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18"/>
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>14</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F18," O_",A18,"_",E18,REPT(" ",(20-(LEN(F18)+LEN(E18))))," = Nex",F18,"(",A18,", ",D18,", """,E18,""");")</f>
+      <c r="K18" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexText O_1_tx_int_max       = NexText(1, 14, "tx_int_max");</v>
       </c>
-      <c r="H18" t="s">
-        <v>202</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="L18" t="s">
+        <v>202</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>282</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19"/>
+      <c r="D19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>15</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F19," O_",A19,"_",E19,REPT(" ",(20-(LEN(F19)+LEN(E19))))," = Nex",F19,"(",A19,", ",D19,", """,E19,""");")</f>
+      <c r="K19" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexText O_1_tx_externa       = NexText(1, 15, "tx_externa");</v>
       </c>
-      <c r="H19" t="s">
-        <v>202</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>282</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20"/>
+      <c r="D20" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>16</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F20," O_",A20,"_",E20,REPT(" ",(20-(LEN(F20)+LEN(E20))))," = Nex",F20,"(",A20,", ",D20,", """,E20,""");")</f>
+      <c r="K20" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexText O_1_tx_ext_min       = NexText(1, 16, "tx_ext_min");</v>
       </c>
-      <c r="H20" t="s">
-        <v>202</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="L20" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>282</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21"/>
+      <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>17</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F21," O_",A21,"_",E21,REPT(" ",(20-(LEN(F21)+LEN(E21))))," = Nex",F21,"(",A21,", ",D21,", """,E21,""");")</f>
+      <c r="K21" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexText O_1_tx_ext_max       = NexText(1, 17, "tx_ext_max");</v>
       </c>
-      <c r="H21" t="s">
-        <v>202</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>282</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22"/>
+      <c r="D22" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>18</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>34</v>
       </c>
-      <c r="F22" t="s">
+      <c r="J22" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F22," O_",A22,"_",E22,REPT(" ",(20-(LEN(F22)+LEN(E22))))," = Nex",F22,"(",A22,", ",D22,", """,E22,""");")</f>
+      <c r="K22" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexText O_1_tx_log           = NexText(1, 18, "tx_log");</v>
       </c>
-      <c r="H22" t="s">
-        <v>202</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="L22" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>282</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23"/>
+      <c r="D23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>19</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>117</v>
       </c>
-      <c r="F23" t="s">
+      <c r="J23" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F23," O_",A23,"_",E23,REPT(" ",(20-(LEN(F23)+LEN(E23))))," = Nex",F23,"(",A23,", ",D23,", """,E23,""");")</f>
+      <c r="K23" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexRadio O_1_led_1           = NexRadio(1, 19, "led_1");</v>
       </c>
-      <c r="H23" t="s">
-        <v>202</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="L23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>282</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24"/>
+      <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>20</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>118</v>
       </c>
-      <c r="F24" t="s">
+      <c r="J24" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F24," O_",A24,"_",E24,REPT(" ",(20-(LEN(F24)+LEN(E24))))," = Nex",F24,"(",A24,", ",D24,", """,E24,""");")</f>
+      <c r="K24" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexRadio O_1_led_2           = NexRadio(1, 20, "led_2");</v>
       </c>
-      <c r="H24" t="s">
-        <v>202</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="L24" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>282</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25"/>
+      <c r="D25" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>21</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>119</v>
       </c>
-      <c r="F25" t="s">
+      <c r="J25" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F25," O_",A25,"_",E25,REPT(" ",(20-(LEN(F25)+LEN(E25))))," = Nex",F25,"(",A25,", ",D25,", """,E25,""");")</f>
+      <c r="K25" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexRadio O_1_led_3           = NexRadio(1, 21, "led_3");</v>
       </c>
-      <c r="H25" t="s">
-        <v>202</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O25" s="1">
+      <c r="S25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>282</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26"/>
+      <c r="D26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>22</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>120</v>
       </c>
-      <c r="F26" t="s">
+      <c r="J26" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F26," O_",A26,"_",E26,REPT(" ",(20-(LEN(F26)+LEN(E26))))," = Nex",F26,"(",A26,", ",D26,", """,E26,""");")</f>
+      <c r="K26" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexRadio O_1_led_4           = NexRadio(1, 22, "led_4");</v>
       </c>
-      <c r="H26" t="s">
-        <v>202</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="1">
+      <c r="S26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>282</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27"/>
+      <c r="D27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>23</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>121</v>
       </c>
-      <c r="F27" t="s">
+      <c r="J27" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F27," O_",A27,"_",E27,REPT(" ",(20-(LEN(F27)+LEN(E27))))," = Nex",F27,"(",A27,", ",D27,", """,E27,""");")</f>
+      <c r="K27" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexRadio O_1_led_5           = NexRadio(1, 23, "led_5");</v>
       </c>
-      <c r="H27" t="s">
-        <v>202</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="1">
+      <c r="S27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>282</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28"/>
+      <c r="D28" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>122</v>
       </c>
-      <c r="F28" t="s">
+      <c r="J28" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F28," O_",A28,"_",E28,REPT(" ",(20-(LEN(F28)+LEN(E28))))," = Nex",F28,"(",A28,", ",D28,", """,E28,""");")</f>
+      <c r="K28" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexRadio O_1_led_6           = NexRadio(1, 24, "led_6");</v>
       </c>
-      <c r="H28" t="s">
-        <v>202</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="L28" t="s">
+        <v>202</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O28" s="1">
+      <c r="S28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>282</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29"/>
+      <c r="D29" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>25</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>123</v>
       </c>
-      <c r="F29" t="s">
+      <c r="J29" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F29," O_",A29,"_",E29,REPT(" ",(20-(LEN(F29)+LEN(E29))))," = Nex",F29,"(",A29,", ",D29,", """,E29,""");")</f>
+      <c r="K29" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexRadio O_1_led_7           = NexRadio(1, 25, "led_7");</v>
       </c>
-      <c r="H29" t="s">
-        <v>202</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="L29" t="s">
+        <v>202</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="1">
+      <c r="S29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>282</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30"/>
+      <c r="D30" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>26</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>124</v>
       </c>
-      <c r="F30" t="s">
+      <c r="J30" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F30," O_",A30,"_",E30,REPT(" ",(20-(LEN(F30)+LEN(E30))))," = Nex",F30,"(",A30,", ",D30,", """,E30,""");")</f>
+      <c r="K30" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexRadio O_1_led_8           = NexRadio(1, 26, "led_8");</v>
       </c>
-      <c r="H30" t="s">
-        <v>202</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="L30" t="s">
+        <v>202</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O30" s="1">
+      <c r="S30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>282</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31"/>
+      <c r="D31" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>27</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>125</v>
       </c>
-      <c r="F31" t="s">
+      <c r="J31" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F31," O_",A31,"_",E31,REPT(" ",(20-(LEN(F31)+LEN(E31))))," = Nex",F31,"(",A31,", ",D31,", """,E31,""");")</f>
+      <c r="K31" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexRadio O_1_led_9           = NexRadio(1, 27, "led_9");</v>
       </c>
-      <c r="H31" t="s">
-        <v>202</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="L31" t="s">
+        <v>202</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O31" s="1">
+      <c r="S31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>282</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32"/>
+      <c r="D32" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>28</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>126</v>
       </c>
-      <c r="F32" t="s">
+      <c r="J32" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F32," O_",A32,"_",E32,REPT(" ",(20-(LEN(F32)+LEN(E32))))," = Nex",F32,"(",A32,", ",D32,", """,E32,""");")</f>
+      <c r="K32" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexRadio O_1_led_10          = NexRadio(1, 28, "led_10");</v>
       </c>
-      <c r="H32" t="s">
-        <v>202</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="L32" t="s">
+        <v>202</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="1">
+      <c r="S32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
         <v>282</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33"/>
+      <c r="D33" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>29</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>127</v>
       </c>
-      <c r="F33" t="s">
+      <c r="J33" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F33," O_",A33,"_",E33,REPT(" ",(20-(LEN(F33)+LEN(E33))))," = Nex",F33,"(",A33,", ",D33,", """,E33,""");")</f>
+      <c r="K33" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexRadio O_1_led_11          = NexRadio(1, 29, "led_11");</v>
       </c>
-      <c r="H33" t="s">
-        <v>202</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="L33" t="s">
+        <v>202</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O33" s="1">
+      <c r="S33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
         <v>282</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34"/>
+      <c r="D34" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>30</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>128</v>
       </c>
-      <c r="F34" t="s">
+      <c r="J34" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F34," O_",A34,"_",E34,REPT(" ",(20-(LEN(F34)+LEN(E34))))," = Nex",F34,"(",A34,", ",D34,", """,E34,""");")</f>
+      <c r="K34" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>NexRadio O_1_led_12          = NexRadio(1, 30, "led_12");</v>
       </c>
-      <c r="H34" t="s">
-        <v>202</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="L34" t="s">
+        <v>202</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O34" s="1">
+      <c r="S34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>282</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35"/>
+      <c r="D35" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>31</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>129</v>
       </c>
-      <c r="F35" t="s">
+      <c r="J35" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F35," O_",A35,"_",E35,REPT(" ",(20-(LEN(F35)+LEN(E35))))," = Nex",F35,"(",A35,", ",D35,", """,E35,""");")</f>
+      <c r="K35" s="13" t="str">
+        <f t="shared" ref="K35:K66" si="1">_xlfn.CONCAT("Nex",J35," O_",A35,"_",F35,REPT(" ",(20-(LEN(J35)+LEN(F35))))," = Nex",J35,"(",A35,", ",E35,", """,F35,""");")</f>
         <v>NexRadio O_1_led_13          = NexRadio(1, 31, "led_13");</v>
       </c>
-      <c r="H35" t="s">
-        <v>202</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="L35" t="s">
+        <v>202</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O35" s="1">
+      <c r="S35" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>282</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36"/>
+      <c r="D36" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>32</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>130</v>
       </c>
-      <c r="F36" t="s">
+      <c r="J36" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F36," O_",A36,"_",E36,REPT(" ",(20-(LEN(F36)+LEN(E36))))," = Nex",F36,"(",A36,", ",D36,", """,E36,""");")</f>
+      <c r="K36" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexRadio O_1_led_14          = NexRadio(1, 32, "led_14");</v>
       </c>
-      <c r="H36" t="s">
-        <v>202</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="L36" t="s">
+        <v>202</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O36" s="1">
+      <c r="S36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>282</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37"/>
+      <c r="D37" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>33</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>131</v>
       </c>
-      <c r="F37" t="s">
+      <c r="J37" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F37," O_",A37,"_",E37,REPT(" ",(20-(LEN(F37)+LEN(E37))))," = Nex",F37,"(",A37,", ",D37,", """,E37,""");")</f>
+      <c r="K37" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexRadio O_1_led_15          = NexRadio(1, 33, "led_15");</v>
       </c>
-      <c r="H37" t="s">
-        <v>202</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="L37" t="s">
+        <v>202</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O37" s="1">
+      <c r="S37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
         <v>282</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38"/>
+      <c r="D38" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>34</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F38," O_",A38,"_",E38,REPT(" ",(20-(LEN(F38)+LEN(E38))))," = Nex",F38,"(",A38,", ",D38,", """,E38,""");")</f>
+      <c r="K38" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexGauge O_1_ma_bateria      = NexGauge(1, 34, "ma_bateria");</v>
       </c>
-      <c r="H38" t="s">
-        <v>202</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="L38" t="s">
+        <v>202</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="1">
+      <c r="O38" s="1">
         <v>270</v>
       </c>
-      <c r="L38" s="1">
+      <c r="P38" s="1">
         <v>90</v>
       </c>
-      <c r="M38" s="1">
+      <c r="Q38" s="1">
         <v>8</v>
       </c>
-      <c r="N38" s="1">
+      <c r="R38" s="1">
         <v>16</v>
       </c>
-      <c r="O38" s="1">
+      <c r="S38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>282</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39"/>
+      <c r="D39" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>35</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="F39" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F39," O_",A39,"_",E39,REPT(" ",(20-(LEN(F39)+LEN(E39))))," = Nex",F39,"(",A39,", ",D39,", """,E39,""");")</f>
+      <c r="K39" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexText O_1_tx_ano           = NexText(1, 35, "tx_ano");</v>
       </c>
-      <c r="H39" t="s">
-        <v>202</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="L39" t="s">
+        <v>202</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>282</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40"/>
+      <c r="D40" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>36</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>132</v>
       </c>
-      <c r="F40" t="s">
+      <c r="J40" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F40," O_",A40,"_",E40,REPT(" ",(20-(LEN(F40)+LEN(E40))))," = Nex",F40,"(",A40,", ",D40,", """,E40,""");")</f>
+      <c r="K40" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexRadio O_1_led_16          = NexRadio(1, 36, "led_16");</v>
       </c>
-      <c r="H40" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" s="1" t="s">
+      <c r="L40" t="s">
+        <v>202</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O40" s="1">
+      <c r="S40" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>282</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41"/>
+      <c r="D41" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>37</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>71</v>
       </c>
-      <c r="F41" t="s">
+      <c r="J41" t="s">
         <v>279</v>
       </c>
-      <c r="G41" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F41," O_",A41,"_",E41,REPT(" ",(20-(LEN(F41)+LEN(E41))))," = Nex",F41,"(",A41,", ",D41,", """,E41,""");")</f>
+      <c r="K41" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexProgressBar O_1_pb_volume = NexProgressBar(1, 37, "pb_volume");</v>
       </c>
-      <c r="H41" t="s">
-        <v>202</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="L41" t="s">
+        <v>202</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="1">
+      <c r="O41" s="1">
         <v>0</v>
       </c>
-      <c r="L41" s="1">
+      <c r="P41" s="1">
         <v>15</v>
       </c>
-      <c r="M41" s="1">
+      <c r="Q41" s="1">
         <v>1</v>
       </c>
-      <c r="N41" s="1">
+      <c r="R41" s="1">
         <v>15</v>
       </c>
-      <c r="O41" s="1">
+      <c r="S41" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
         <v>282</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42"/>
+      <c r="D42" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>38</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>133</v>
       </c>
-      <c r="F42" t="s">
+      <c r="J42" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F42," O_",A42,"_",E42,REPT(" ",(20-(LEN(F42)+LEN(E42))))," = Nex",F42,"(",A42,", ",D42,", """,E42,""");")</f>
+      <c r="K42" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexButton O_1_bt_up          = NexButton(1, 38, "bt_up");</v>
       </c>
-      <c r="H42" t="s">
-        <v>202</v>
-      </c>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="L42" t="s">
+        <v>202</v>
+      </c>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
         <v>282</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43"/>
+      <c r="D43" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>39</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>134</v>
       </c>
-      <c r="F43" t="s">
+      <c r="J43" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F43," O_",A43,"_",E43,REPT(" ",(20-(LEN(F43)+LEN(E43))))," = Nex",F43,"(",A43,", ",D43,", """,E43,""");")</f>
+      <c r="K43" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexButton O_1_bt_down        = NexButton(1, 39, "bt_down");</v>
       </c>
-      <c r="H43" t="s">
-        <v>202</v>
-      </c>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="L43" t="s">
+        <v>202</v>
+      </c>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
         <v>282</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44"/>
+      <c r="D44" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>40</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>72</v>
       </c>
-      <c r="F44" t="s">
+      <c r="J44" t="s">
         <v>280</v>
       </c>
-      <c r="G44" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F44," O_",A44,"_",E44,REPT(" ",(20-(LEN(F44)+LEN(E44))))," = Nex",F44,"(",A44,", ",D44,", """,E44,""");")</f>
+      <c r="K44" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexDSButton O_1_bt_mute      = NexDSButton(1, 40, "bt_mute");</v>
       </c>
-      <c r="H44" t="s">
-        <v>202</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>1</v>
+      <c r="L44" t="s">
+        <v>202</v>
       </c>
       <c r="O44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
         <v>282</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45"/>
+      <c r="D45" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>41</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>74</v>
       </c>
-      <c r="F45" t="s">
+      <c r="J45" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F45," O_",A45,"_",E45,REPT(" ",(20-(LEN(F45)+LEN(E45))))," = Nex",F45,"(",A45,", ",D45,", """,E45,""");")</f>
+      <c r="K45" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexSlider O_1_sl_freq        = NexSlider(1, 41, "sl_freq");</v>
       </c>
-      <c r="H45" t="s">
-        <v>202</v>
-      </c>
-      <c r="K45" s="1">
+      <c r="L45" t="s">
+        <v>202</v>
+      </c>
+      <c r="O45" s="1">
         <v>860</v>
       </c>
-      <c r="L45" s="1">
+      <c r="P45" s="1">
         <v>1100</v>
       </c>
-      <c r="M45" s="1">
+      <c r="Q45" s="1">
         <v>86</v>
       </c>
-      <c r="N45" s="1">
+      <c r="R45" s="1">
         <v>110</v>
       </c>
-      <c r="O45" s="1">
+      <c r="S45" s="1">
         <v>1023</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
         <v>282</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46"/>
+      <c r="D46" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>42</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>76</v>
       </c>
-      <c r="F46" t="s">
+      <c r="J46" t="s">
         <v>85</v>
       </c>
-      <c r="G46" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F46," O_",A46,"_",E46,REPT(" ",(20-(LEN(F46)+LEN(E46))))," = Nex",F46,"(",A46,", ",D46,", """,E46,""");")</f>
+      <c r="K46" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexButton O_1_bt_next        = NexButton(1, 42, "bt_next");</v>
       </c>
-      <c r="H46" t="s">
-        <v>202</v>
-      </c>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="L46" t="s">
+        <v>202</v>
+      </c>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
         <v>282</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47"/>
+      <c r="D47" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>43</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>75</v>
       </c>
-      <c r="F47" t="s">
+      <c r="J47" t="s">
         <v>85</v>
       </c>
-      <c r="G47" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F47," O_",A47,"_",E47,REPT(" ",(20-(LEN(F47)+LEN(E47))))," = Nex",F47,"(",A47,", ",D47,", """,E47,""");")</f>
+      <c r="K47" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexButton O_1_bt_prev        = NexButton(1, 43, "bt_prev");</v>
       </c>
-      <c r="H47" t="s">
-        <v>202</v>
-      </c>
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="L47" t="s">
+        <v>202</v>
+      </c>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48" t="s">
         <v>282</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48"/>
+      <c r="D48" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>44</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>104</v>
       </c>
-      <c r="F48" t="s">
+      <c r="J48" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F48," O_",A48,"_",E48,REPT(" ",(20-(LEN(F48)+LEN(E48))))," = Nex",F48,"(",A48,", ",D48,", """,E48,""");")</f>
+      <c r="K48" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexVariable O_1_va0          = NexVariable(1, 44, "va0");</v>
       </c>
-      <c r="H48" t="s">
-        <v>202</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="L48" t="s">
+        <v>202</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
         <v>282</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49"/>
+      <c r="D49" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <v>45</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>105</v>
       </c>
-      <c r="F49" t="s">
+      <c r="J49" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F49," O_",A49,"_",E49,REPT(" ",(20-(LEN(F49)+LEN(E49))))," = Nex",F49,"(",A49,", ",D49,", """,E49,""");")</f>
+      <c r="K49" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexVariable O_1_va1          = NexVariable(1, 45, "va1");</v>
       </c>
-      <c r="H49" t="s">
-        <v>202</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="L49" t="s">
+        <v>202</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
         <v>282</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50"/>
+      <c r="D50" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>46</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>106</v>
       </c>
-      <c r="F50" t="s">
+      <c r="J50" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F50," O_",A50,"_",E50,REPT(" ",(20-(LEN(F50)+LEN(E50))))," = Nex",F50,"(",A50,", ",D50,", """,E50,""");")</f>
+      <c r="K50" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexVariable O_1_va2          = NexVariable(1, 46, "va2");</v>
       </c>
-      <c r="H50" t="s">
-        <v>202</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="L50" t="s">
+        <v>202</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51" t="s">
         <v>282</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51"/>
+      <c r="D51" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="1">
         <v>47</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>73</v>
       </c>
-      <c r="F51" t="s">
+      <c r="J51" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F51," O_",A51,"_",E51,REPT(" ",(20-(LEN(F51)+LEN(E51))))," = Nex",F51,"(",A51,", ",D51,", """,E51,""");")</f>
+      <c r="K51" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexText O_1_tx_freq          = NexText(1, 47, "tx_freq");</v>
       </c>
-      <c r="H51" t="s">
-        <v>202</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="L51" t="s">
+        <v>202</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="S51" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52" t="s">
         <v>282</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52"/>
+      <c r="D52" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>48</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>289</v>
       </c>
-      <c r="F52" t="s">
+      <c r="J52" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F52," O_",A52,"_",E52,REPT(" ",(20-(LEN(F52)+LEN(E52))))," = Nex",F52,"(",A52,", ",D52,", """,E52,""");")</f>
+      <c r="K52" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexText O_1_t0               = NexText(1, 48, "t0");</v>
       </c>
-      <c r="H52" t="s">
-        <v>202</v>
-      </c>
-      <c r="O52" s="1" t="s">
+      <c r="L52" t="s">
+        <v>202</v>
+      </c>
+      <c r="S52" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>282</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53"/>
+      <c r="D53" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>49</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>136</v>
       </c>
-      <c r="F53" t="s">
+      <c r="J53" t="s">
         <v>85</v>
       </c>
-      <c r="G53" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F53," O_",A53,"_",E53,REPT(" ",(20-(LEN(F53)+LEN(E53))))," = Nex",F53,"(",A53,", ",D53,", """,E53,""");")</f>
+      <c r="K53" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexButton O_1_bt_play        = NexButton(1, 49, "bt_play");</v>
       </c>
-      <c r="H53" t="s">
-        <v>202</v>
-      </c>
-      <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="L53" t="s">
+        <v>202</v>
+      </c>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54" t="s">
         <v>282</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54"/>
+      <c r="D54" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>50</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>137</v>
       </c>
-      <c r="F54" t="s">
+      <c r="J54" t="s">
         <v>85</v>
       </c>
-      <c r="G54" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F54," O_",A54,"_",E54,REPT(" ",(20-(LEN(F54)+LEN(E54))))," = Nex",F54,"(",A54,", ",D54,", """,E54,""");")</f>
+      <c r="K54" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexButton O_1_bt_stop        = NexButton(1, 50, "bt_stop");</v>
       </c>
-      <c r="H54" t="s">
-        <v>202</v>
-      </c>
-      <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="L54" t="s">
+        <v>202</v>
+      </c>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
         <v>282</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55"/>
+      <c r="D55" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="1">
         <v>51</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>138</v>
       </c>
-      <c r="F55" t="s">
+      <c r="J55" t="s">
         <v>85</v>
       </c>
-      <c r="G55" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F55," O_",A55,"_",E55,REPT(" ",(20-(LEN(F55)+LEN(E55))))," = Nex",F55,"(",A55,", ",D55,", """,E55,""");")</f>
+      <c r="K55" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexButton O_1_bt_last        = NexButton(1, 51, "bt_last");</v>
       </c>
-      <c r="H55" t="s">
-        <v>202</v>
-      </c>
-      <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="L55" t="s">
+        <v>202</v>
+      </c>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" t="s">
         <v>282</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56"/>
+      <c r="D56" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="1">
         <v>52</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>135</v>
       </c>
-      <c r="F56" t="s">
+      <c r="J56" t="s">
         <v>85</v>
       </c>
-      <c r="G56" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F56," O_",A56,"_",E56,REPT(" ",(20-(LEN(F56)+LEN(E56))))," = Nex",F56,"(",A56,", ",D56,", """,E56,""");")</f>
+      <c r="K56" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexButton O_1_bt_first       = NexButton(1, 52, "bt_first");</v>
       </c>
-      <c r="H56" t="s">
-        <v>202</v>
-      </c>
-      <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="L56" t="s">
+        <v>202</v>
+      </c>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" t="s">
         <v>282</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57"/>
+      <c r="D57" t="s">
         <v>262</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E57" s="1">
         <v>53</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>142</v>
       </c>
-      <c r="F57" t="s">
+      <c r="J57" t="s">
         <v>37</v>
       </c>
-      <c r="G57" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F57," O_",A57,"_",E57,REPT(" ",(20-(LEN(F57)+LEN(E57))))," = Nex",F57,"(",A57,", ",D57,", """,E57,""");")</f>
+      <c r="K57" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexHotspot O_1_bt_sd         = NexHotspot(1, 53, "bt_sd");</v>
       </c>
-      <c r="H57" t="s">
-        <v>202</v>
-      </c>
-      <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="L57" t="s">
+        <v>202</v>
+      </c>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" t="s">
         <v>282</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58"/>
+      <c r="D58" t="s">
         <v>262</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1">
         <v>54</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>112</v>
       </c>
-      <c r="F58" t="s">
+      <c r="J58" t="s">
         <v>37</v>
       </c>
-      <c r="G58" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F58," O_",A58,"_",E58,REPT(" ",(20-(LEN(F58)+LEN(E58))))," = Nex",F58,"(",A58,", ",D58,", """,E58,""");")</f>
+      <c r="K58" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexHotspot O_1_bt_usb        = NexHotspot(1, 54, "bt_usb");</v>
       </c>
-      <c r="H58" t="s">
-        <v>202</v>
-      </c>
-      <c r="O58" s="1"/>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="L58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" t="s">
         <v>282</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59"/>
+      <c r="D59" t="s">
         <v>262</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="1">
         <v>56</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>113</v>
       </c>
-      <c r="F59" t="s">
+      <c r="J59" t="s">
         <v>37</v>
       </c>
-      <c r="G59" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F59," O_",A59,"_",E59,REPT(" ",(20-(LEN(F59)+LEN(E59))))," = Nex",F59,"(",A59,", ",D59,", """,E59,""");")</f>
+      <c r="K59" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexHotspot O_1_bt_auxiliar   = NexHotspot(1, 56, "bt_auxiliar");</v>
       </c>
-      <c r="H59" t="s">
-        <v>202</v>
-      </c>
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="L59" t="s">
+        <v>202</v>
+      </c>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
         <v>282</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60"/>
+      <c r="D60" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <v>56</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>114</v>
       </c>
-      <c r="F60" t="s">
+      <c r="J60" t="s">
         <v>37</v>
       </c>
-      <c r="G60" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F60," O_",A60,"_",E60,REPT(" ",(20-(LEN(F60)+LEN(E60))))," = Nex",F60,"(",A60,", ",D60,", """,E60,""");")</f>
+      <c r="K60" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexHotspot O_1_bt_checkup    = NexHotspot(1, 56, "bt_checkup");</v>
       </c>
-      <c r="H60" t="s">
-        <v>202</v>
-      </c>
-      <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="L60" t="s">
+        <v>202</v>
+      </c>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" t="s">
         <v>282</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61"/>
+      <c r="D61" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>57</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>116</v>
       </c>
-      <c r="F61" t="s">
+      <c r="J61" t="s">
         <v>37</v>
       </c>
-      <c r="G61" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F61," O_",A61,"_",E61,REPT(" ",(20-(LEN(F61)+LEN(E61))))," = Nex",F61,"(",A61,", ",D61,", """,E61,""");")</f>
+      <c r="K61" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexHotspot O_1_bt_checkup2   = NexHotspot(1, 57, "bt_checkup2");</v>
       </c>
-      <c r="H61" t="s">
-        <v>202</v>
-      </c>
-      <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="L61" t="s">
+        <v>202</v>
+      </c>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" t="s">
         <v>282</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62"/>
+      <c r="D62" t="s">
         <v>262</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <v>58</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="F62" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" t="s">
         <v>85</v>
       </c>
-      <c r="G62" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F62," O_",A62,"_",E62,REPT(" ",(20-(LEN(F62)+LEN(E62))))," = Nex",F62,"(",A62,", ",D62,", """,E62,""");")</f>
+      <c r="K62" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexButton O_1_bt_radio       = NexButton(1, 58, "bt_radio");</v>
       </c>
-      <c r="H62" t="s">
-        <v>202</v>
-      </c>
-      <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="L62" t="s">
+        <v>202</v>
+      </c>
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
       <c r="B63" t="s">
         <v>285</v>
       </c>
-      <c r="D63" s="1">
+      <c r="C63"/>
+      <c r="E63" s="1">
         <v>0</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>285</v>
       </c>
-      <c r="F63" t="s">
+      <c r="J63" t="s">
         <v>284</v>
       </c>
-      <c r="G63" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F63," O_",A63,"_",E63,REPT(" ",(20-(LEN(F63)+LEN(E63))))," = Nex",F63,"(",A63,", ",D63,", """,E63,""");")</f>
+      <c r="K63" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexPage O_2_setup            = NexPage(2, 0, "setup");</v>
       </c>
-      <c r="H63" t="s">
-        <v>202</v>
-      </c>
-      <c r="O63" s="1"/>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="L63" t="s">
+        <v>202</v>
+      </c>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2</v>
       </c>
       <c r="B64" t="s">
         <v>285</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64"/>
+      <c r="D64" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <v>1</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>70</v>
       </c>
-      <c r="F64" t="s">
+      <c r="J64" t="s">
         <v>37</v>
       </c>
-      <c r="G64" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F64," O_",A64,"_",E64,REPT(" ",(20-(LEN(F64)+LEN(E64))))," = Nex",F64,"(",A64,", ",D64,", """,E64,""");")</f>
+      <c r="K64" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexHotspot O_2_bt_home       = NexHotspot(2, 1, "bt_home");</v>
       </c>
-      <c r="H64" t="s">
-        <v>202</v>
-      </c>
-      <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="L64" t="s">
+        <v>202</v>
+      </c>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
       <c r="B65" t="s">
         <v>285</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65"/>
+      <c r="D65" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="1">
         <v>2</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>147</v>
       </c>
-      <c r="F65" t="s">
+      <c r="J65" t="s">
         <v>139</v>
       </c>
-      <c r="G65" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F65," O_",A65,"_",E65,REPT(" ",(20-(LEN(F65)+LEN(E65))))," = Nex",F65,"(",A65,", ",D65,", """,E65,""");")</f>
+      <c r="K65" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexSlider O_2_sl_volume      = NexSlider(2, 2, "sl_volume");</v>
       </c>
-      <c r="H65" t="s">
-        <v>202</v>
-      </c>
-      <c r="I65" s="1" t="s">
+      <c r="L65" t="s">
+        <v>202</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K65" s="1">
+      <c r="O65" s="1">
         <v>1</v>
       </c>
-      <c r="L65" s="1">
+      <c r="P65" s="1">
         <v>15</v>
       </c>
-      <c r="O65" s="1">
+      <c r="S65" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
       <c r="B66" t="s">
         <v>285</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66"/>
+      <c r="D66" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="1">
         <v>3</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>148</v>
       </c>
-      <c r="F66" t="s">
+      <c r="J66" t="s">
         <v>139</v>
       </c>
-      <c r="G66" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F66," O_",A66,"_",E66,REPT(" ",(20-(LEN(F66)+LEN(E66))))," = Nex",F66,"(",A66,", ",D66,", """,E66,""");")</f>
+      <c r="K66" s="13" t="str">
+        <f t="shared" si="1"/>
         <v>NexSlider O_2_sl_grave       = NexSlider(2, 3, "sl_grave");</v>
       </c>
-      <c r="H66" t="s">
-        <v>202</v>
-      </c>
-      <c r="I66" s="1" t="s">
+      <c r="L66" t="s">
+        <v>202</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K66" s="1">
+      <c r="O66" s="1">
         <v>1</v>
       </c>
-      <c r="L66" s="1">
+      <c r="P66" s="1">
         <v>15</v>
       </c>
-      <c r="O66" s="1">
+      <c r="S66" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67" t="s">
         <v>285</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67"/>
+      <c r="D67" t="s">
         <v>150</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>4</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>277</v>
       </c>
-      <c r="F67" t="s">
+      <c r="J67" t="s">
         <v>139</v>
       </c>
-      <c r="G67" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F67," O_",A67,"_",E67,REPT(" ",(20-(LEN(F67)+LEN(E67))))," = Nex",F67,"(",A67,", ",D67,", """,E67,""");")</f>
+      <c r="K67" s="13" t="str">
+        <f t="shared" ref="K67:K98" si="2">_xlfn.CONCAT("Nex",J67," O_",A67,"_",F67,REPT(" ",(20-(LEN(J67)+LEN(F67))))," = Nex",J67,"(",A67,", ",E67,", """,F67,""");")</f>
         <v>NexSlider O_2_sl_agudo       = NexSlider(2, 4, "sl_agudo");</v>
       </c>
-      <c r="H67" t="s">
-        <v>202</v>
-      </c>
-      <c r="I67" s="1" t="s">
+      <c r="L67" t="s">
+        <v>202</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K67" s="1">
+      <c r="O67" s="1">
         <v>1</v>
       </c>
-      <c r="L67" s="1">
+      <c r="P67" s="1">
         <v>15</v>
       </c>
-      <c r="O67" s="1">
+      <c r="S67" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2</v>
       </c>
       <c r="B68" t="s">
         <v>285</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68"/>
+      <c r="D68" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <v>5</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>152</v>
       </c>
-      <c r="F68" t="s">
+      <c r="J68" t="s">
         <v>85</v>
       </c>
-      <c r="G68" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F68," O_",A68,"_",E68,REPT(" ",(20-(LEN(F68)+LEN(E68))))," = Nex",F68,"(",A68,", ",D68,", """,E68,""");")</f>
+      <c r="K68" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexButton O_2_bt_volume_up   = NexButton(2, 5, "bt_volume_up");</v>
       </c>
-      <c r="H68" t="s">
-        <v>202</v>
-      </c>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="L68" t="s">
+        <v>202</v>
+      </c>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
       <c r="B69" t="s">
         <v>285</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69"/>
+      <c r="D69" t="s">
         <v>89</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <v>6</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>151</v>
       </c>
-      <c r="F69" t="s">
+      <c r="J69" t="s">
         <v>85</v>
       </c>
-      <c r="G69" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F69," O_",A69,"_",E69,REPT(" ",(20-(LEN(F69)+LEN(E69))))," = Nex",F69,"(",A69,", ",D69,", """,E69,""");")</f>
+      <c r="K69" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexButton O_2_bt_volume_down = NexButton(2, 6, "bt_volume_down");</v>
       </c>
-      <c r="H69" t="s">
-        <v>202</v>
-      </c>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="L69" t="s">
+        <v>202</v>
+      </c>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
       <c r="B70" t="s">
         <v>285</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70"/>
+      <c r="D70" t="s">
         <v>150</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <v>7</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>153</v>
       </c>
-      <c r="F70" t="s">
+      <c r="J70" t="s">
         <v>85</v>
       </c>
-      <c r="G70" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F70," O_",A70,"_",E70,REPT(" ",(20-(LEN(F70)+LEN(E70))))," = Nex",F70,"(",A70,", ",D70,", """,E70,""");")</f>
+      <c r="K70" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexButton O_2_bt_grave_down  = NexButton(2, 7, "bt_grave_down");</v>
       </c>
-      <c r="H70" t="s">
-        <v>202</v>
-      </c>
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="L70" t="s">
+        <v>202</v>
+      </c>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
       <c r="B71" t="s">
         <v>285</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71"/>
+      <c r="D71" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="1">
         <v>8</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>156</v>
       </c>
-      <c r="F71" t="s">
+      <c r="J71" t="s">
         <v>85</v>
       </c>
-      <c r="G71" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F71," O_",A71,"_",E71,REPT(" ",(20-(LEN(F71)+LEN(E71))))," = Nex",F71,"(",A71,", ",D71,", """,E71,""");")</f>
+      <c r="K71" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexButton O_2_bt_agudo_down  = NexButton(2, 8, "bt_agudo_down");</v>
       </c>
-      <c r="H71" t="s">
-        <v>202</v>
-      </c>
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="L71" t="s">
+        <v>202</v>
+      </c>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
       <c r="B72" t="s">
         <v>285</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72"/>
+      <c r="D72" t="s">
         <v>150</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <v>9</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>154</v>
       </c>
-      <c r="F72" t="s">
+      <c r="J72" t="s">
         <v>85</v>
       </c>
-      <c r="G72" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F72," O_",A72,"_",E72,REPT(" ",(20-(LEN(F72)+LEN(E72))))," = Nex",F72,"(",A72,", ",D72,", """,E72,""");")</f>
+      <c r="K72" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexButton O_2_bt_grave_up    = NexButton(2, 9, "bt_grave_up");</v>
       </c>
-      <c r="H72" t="s">
-        <v>202</v>
-      </c>
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="L72" t="s">
+        <v>202</v>
+      </c>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
       <c r="B73" t="s">
         <v>285</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73"/>
+      <c r="D73" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <v>10</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>155</v>
       </c>
-      <c r="F73" t="s">
+      <c r="J73" t="s">
         <v>85</v>
       </c>
-      <c r="G73" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F73," O_",A73,"_",E73,REPT(" ",(20-(LEN(F73)+LEN(E73))))," = Nex",F73,"(",A73,", ",D73,", """,E73,""");")</f>
+      <c r="K73" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexButton O_2_bt_agudo_up    = NexButton(2, 10, "bt_agudo_up");</v>
       </c>
-      <c r="H73" t="s">
-        <v>202</v>
-      </c>
-      <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="L73" t="s">
+        <v>202</v>
+      </c>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
       <c r="B74" t="s">
         <v>285</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74"/>
+      <c r="D74" t="s">
         <v>150</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <v>11</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>157</v>
       </c>
-      <c r="F74" t="s">
+      <c r="J74" t="s">
         <v>158</v>
       </c>
-      <c r="G74" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F74," O_",A74,"_",E74,REPT(" ",(20-(LEN(F74)+LEN(E74))))," = Nex",F74,"(",A74,", ",D74,", """,E74,""");")</f>
+      <c r="K74" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexCheckbox O_2_cb_loudness  = NexCheckbox(2, 11, "cb_loudness");</v>
       </c>
-      <c r="H74" t="s">
-        <v>202</v>
-      </c>
-      <c r="K74" s="1">
+      <c r="L74" t="s">
+        <v>202</v>
+      </c>
+      <c r="O74" s="1">
         <v>0</v>
       </c>
-      <c r="L74" s="1">
+      <c r="P74" s="1">
         <v>1</v>
       </c>
-      <c r="O74" s="1">
+      <c r="S74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
       <c r="B75" t="s">
         <v>285</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75"/>
+      <c r="D75" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>12</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>145</v>
       </c>
-      <c r="F75" t="s">
+      <c r="J75" t="s">
         <v>24</v>
       </c>
-      <c r="G75" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F75," O_",A75,"_",E75,REPT(" ",(20-(LEN(F75)+LEN(E75))))," = Nex",F75,"(",A75,", ",D75,", """,E75,""");")</f>
+      <c r="K75" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexGauge O_2_ma_minuto       = NexGauge(2, 12, "ma_minuto");</v>
       </c>
-      <c r="H75" t="s">
-        <v>202</v>
-      </c>
-      <c r="I75" s="1" t="s">
+      <c r="L75" t="s">
+        <v>202</v>
+      </c>
+      <c r="M75" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K75" s="1">
+      <c r="O75" s="1">
         <v>0</v>
       </c>
-      <c r="L75" s="1">
+      <c r="P75" s="1">
         <v>360</v>
       </c>
-      <c r="M75" s="1">
+      <c r="Q75" s="1">
         <v>45</v>
       </c>
-      <c r="O75" s="1">
+      <c r="S75" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76" t="s">
         <v>285</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76"/>
+      <c r="D76" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>13</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>146</v>
       </c>
-      <c r="F76" t="s">
+      <c r="J76" t="s">
         <v>24</v>
       </c>
-      <c r="G76" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F76," O_",A76,"_",E76,REPT(" ",(20-(LEN(F76)+LEN(E76))))," = Nex",F76,"(",A76,", ",D76,", """,E76,""");")</f>
+      <c r="K76" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexGauge O_2_ma_hora         = NexGauge(2, 13, "ma_hora");</v>
       </c>
-      <c r="H76" t="s">
-        <v>202</v>
-      </c>
-      <c r="I76" s="1" t="s">
+      <c r="L76" t="s">
+        <v>202</v>
+      </c>
+      <c r="M76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K76" s="1">
+      <c r="O76" s="1">
         <v>0</v>
       </c>
-      <c r="L76" s="1">
+      <c r="P76" s="1">
         <v>360</v>
       </c>
-      <c r="M76" s="1">
+      <c r="Q76" s="1">
         <v>9</v>
       </c>
-      <c r="O76" s="1">
+      <c r="S76" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3</v>
       </c>
       <c r="B77" t="s">
         <v>286</v>
       </c>
-      <c r="D77" s="1">
+      <c r="C77"/>
+      <c r="E77" s="1">
         <v>0</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>286</v>
       </c>
-      <c r="F77" t="s">
+      <c r="J77" t="s">
         <v>284</v>
       </c>
-      <c r="G77" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F77," O_",A77,"_",E77,REPT(" ",(20-(LEN(F77)+LEN(E77))))," = Nex",F77,"(",A77,", ",D77,", """,E77,""");")</f>
+      <c r="K77" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexPage O_3_checkup          = NexPage(3, 0, "checkup");</v>
       </c>
-      <c r="H77" t="s">
-        <v>202</v>
-      </c>
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="1:15">
+      <c r="L77" t="s">
+        <v>202</v>
+      </c>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
       <c r="B78" t="s">
         <v>286</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78"/>
+      <c r="D78" t="s">
         <v>144</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>1</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>70</v>
       </c>
-      <c r="F78" t="s">
+      <c r="J78" t="s">
         <v>37</v>
       </c>
-      <c r="G78" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F78," O_",A78,"_",E78,REPT(" ",(20-(LEN(F78)+LEN(E78))))," = Nex",F78,"(",A78,", ",D78,", """,E78,""");")</f>
+      <c r="K78" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexHotspot O_3_bt_home       = NexHotspot(3, 1, "bt_home");</v>
       </c>
-      <c r="H78" t="s">
-        <v>202</v>
-      </c>
-      <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="L78" t="s">
+        <v>202</v>
+      </c>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3</v>
       </c>
       <c r="B79" t="s">
         <v>286</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79"/>
+      <c r="D79" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <v>2</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>160</v>
       </c>
-      <c r="F79" t="s">
+      <c r="J79" t="s">
         <v>85</v>
       </c>
-      <c r="G79" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F79," O_",A79,"_",E79,REPT(" ",(20-(LEN(F79)+LEN(E79))))," = Nex",F79,"(",A79,", ",D79,", """,E79,""");")</f>
+      <c r="K79" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexButton O_3_bt_restart     = NexButton(3, 2, "bt_restart");</v>
       </c>
-      <c r="H79" t="s">
-        <v>202</v>
-      </c>
-      <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="L79" t="s">
+        <v>202</v>
+      </c>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3</v>
       </c>
       <c r="B80" t="s">
         <v>286</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80"/>
+      <c r="D80" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="1">
+      <c r="E80" s="1">
         <v>3</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>34</v>
       </c>
-      <c r="F80" t="s">
+      <c r="J80" t="s">
         <v>25</v>
       </c>
-      <c r="G80" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F80," O_",A80,"_",E80,REPT(" ",(20-(LEN(F80)+LEN(E80))))," = Nex",F80,"(",A80,", ",D80,", """,E80,""");")</f>
+      <c r="K80" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexText O_3_tx_log           = NexText(3, 3, "tx_log");</v>
       </c>
-      <c r="H80" t="s">
-        <v>202</v>
-      </c>
-      <c r="I80" s="1" t="s">
+      <c r="L80" t="s">
+        <v>202</v>
+      </c>
+      <c r="M80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3</v>
       </c>
       <c r="B81" t="s">
         <v>286</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81"/>
+      <c r="D81" t="s">
         <v>115</v>
       </c>
-      <c r="D81" s="1">
+      <c r="E81" s="1">
         <v>4</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>117</v>
       </c>
-      <c r="F81" t="s">
+      <c r="J81" t="s">
         <v>40</v>
       </c>
-      <c r="G81" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F81," O_",A81,"_",E81,REPT(" ",(20-(LEN(F81)+LEN(E81))))," = Nex",F81,"(",A81,", ",D81,", """,E81,""");")</f>
+      <c r="K81" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_1           = NexRadio(3, 4, "led_1");</v>
       </c>
-      <c r="H81" t="s">
-        <v>202</v>
-      </c>
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="L81" t="s">
+        <v>202</v>
+      </c>
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
       <c r="B82" t="s">
         <v>286</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82"/>
+      <c r="D82" t="s">
         <v>115</v>
       </c>
-      <c r="D82" s="1">
+      <c r="E82" s="1">
         <v>5</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>118</v>
       </c>
-      <c r="F82" t="s">
+      <c r="J82" t="s">
         <v>40</v>
       </c>
-      <c r="G82" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F82," O_",A82,"_",E82,REPT(" ",(20-(LEN(F82)+LEN(E82))))," = Nex",F82,"(",A82,", ",D82,", """,E82,""");")</f>
+      <c r="K82" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_2           = NexRadio(3, 5, "led_2");</v>
       </c>
-      <c r="H82" t="s">
-        <v>202</v>
-      </c>
-      <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="L82" t="s">
+        <v>202</v>
+      </c>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3</v>
       </c>
       <c r="B83" t="s">
         <v>286</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83"/>
+      <c r="D83" t="s">
         <v>115</v>
       </c>
-      <c r="D83" s="1">
+      <c r="E83" s="1">
         <v>6</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>119</v>
       </c>
-      <c r="F83" t="s">
+      <c r="J83" t="s">
         <v>40</v>
       </c>
-      <c r="G83" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F83," O_",A83,"_",E83,REPT(" ",(20-(LEN(F83)+LEN(E83))))," = Nex",F83,"(",A83,", ",D83,", """,E83,""");")</f>
+      <c r="K83" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_3           = NexRadio(3, 6, "led_3");</v>
       </c>
-      <c r="H83" t="s">
-        <v>202</v>
-      </c>
-      <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="L83" t="s">
+        <v>202</v>
+      </c>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3</v>
       </c>
       <c r="B84" t="s">
         <v>286</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84"/>
+      <c r="D84" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="1">
+      <c r="E84" s="1">
         <v>7</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>120</v>
       </c>
-      <c r="F84" t="s">
+      <c r="J84" t="s">
         <v>40</v>
       </c>
-      <c r="G84" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F84," O_",A84,"_",E84,REPT(" ",(20-(LEN(F84)+LEN(E84))))," = Nex",F84,"(",A84,", ",D84,", """,E84,""");")</f>
+      <c r="K84" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_4           = NexRadio(3, 7, "led_4");</v>
       </c>
-      <c r="H84" t="s">
-        <v>202</v>
-      </c>
-      <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="L84" t="s">
+        <v>202</v>
+      </c>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>3</v>
       </c>
       <c r="B85" t="s">
         <v>286</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85"/>
+      <c r="D85" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="1">
+      <c r="E85" s="1">
         <v>8</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>121</v>
       </c>
-      <c r="F85" t="s">
+      <c r="J85" t="s">
         <v>40</v>
       </c>
-      <c r="G85" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F85," O_",A85,"_",E85,REPT(" ",(20-(LEN(F85)+LEN(E85))))," = Nex",F85,"(",A85,", ",D85,", """,E85,""");")</f>
+      <c r="K85" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_5           = NexRadio(3, 8, "led_5");</v>
       </c>
-      <c r="H85" t="s">
-        <v>202</v>
-      </c>
-      <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="L85" t="s">
+        <v>202</v>
+      </c>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3</v>
       </c>
       <c r="B86" t="s">
         <v>286</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86"/>
+      <c r="D86" t="s">
         <v>115</v>
       </c>
-      <c r="D86" s="1">
+      <c r="E86" s="1">
         <v>9</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>122</v>
       </c>
-      <c r="F86" t="s">
+      <c r="J86" t="s">
         <v>40</v>
       </c>
-      <c r="G86" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F86," O_",A86,"_",E86,REPT(" ",(20-(LEN(F86)+LEN(E86))))," = Nex",F86,"(",A86,", ",D86,", """,E86,""");")</f>
+      <c r="K86" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_6           = NexRadio(3, 9, "led_6");</v>
       </c>
-      <c r="H86" t="s">
-        <v>202</v>
-      </c>
-      <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="L86" t="s">
+        <v>202</v>
+      </c>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>3</v>
       </c>
       <c r="B87" t="s">
         <v>286</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87"/>
+      <c r="D87" t="s">
         <v>115</v>
       </c>
-      <c r="D87" s="1">
+      <c r="E87" s="1">
         <v>10</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>123</v>
       </c>
-      <c r="F87" t="s">
+      <c r="J87" t="s">
         <v>40</v>
       </c>
-      <c r="G87" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F87," O_",A87,"_",E87,REPT(" ",(20-(LEN(F87)+LEN(E87))))," = Nex",F87,"(",A87,", ",D87,", """,E87,""");")</f>
+      <c r="K87" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_7           = NexRadio(3, 10, "led_7");</v>
       </c>
-      <c r="H87" t="s">
-        <v>202</v>
-      </c>
-      <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="L87" t="s">
+        <v>202</v>
+      </c>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3</v>
       </c>
       <c r="B88" t="s">
         <v>286</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88"/>
+      <c r="D88" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="1">
+      <c r="E88" s="1">
         <v>11</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>124</v>
       </c>
-      <c r="F88" t="s">
+      <c r="J88" t="s">
         <v>40</v>
       </c>
-      <c r="G88" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F88," O_",A88,"_",E88,REPT(" ",(20-(LEN(F88)+LEN(E88))))," = Nex",F88,"(",A88,", ",D88,", """,E88,""");")</f>
+      <c r="K88" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_8           = NexRadio(3, 11, "led_8");</v>
       </c>
-      <c r="H88" t="s">
-        <v>202</v>
-      </c>
-      <c r="O88" s="1"/>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="L88" t="s">
+        <v>202</v>
+      </c>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>3</v>
       </c>
       <c r="B89" t="s">
         <v>286</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89"/>
+      <c r="D89" t="s">
         <v>115</v>
       </c>
-      <c r="D89" s="1">
+      <c r="E89" s="1">
         <v>12</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>125</v>
       </c>
-      <c r="F89" t="s">
+      <c r="J89" t="s">
         <v>40</v>
       </c>
-      <c r="G89" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F89," O_",A89,"_",E89,REPT(" ",(20-(LEN(F89)+LEN(E89))))," = Nex",F89,"(",A89,", ",D89,", """,E89,""");")</f>
+      <c r="K89" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_9           = NexRadio(3, 12, "led_9");</v>
       </c>
-      <c r="H89" t="s">
-        <v>202</v>
-      </c>
-      <c r="O89" s="1"/>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="L89" t="s">
+        <v>202</v>
+      </c>
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3</v>
       </c>
       <c r="B90" t="s">
         <v>286</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90"/>
+      <c r="D90" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="1">
+      <c r="E90" s="1">
         <v>13</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>126</v>
       </c>
-      <c r="F90" t="s">
+      <c r="J90" t="s">
         <v>40</v>
       </c>
-      <c r="G90" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F90," O_",A90,"_",E90,REPT(" ",(20-(LEN(F90)+LEN(E90))))," = Nex",F90,"(",A90,", ",D90,", """,E90,""");")</f>
+      <c r="K90" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_10          = NexRadio(3, 13, "led_10");</v>
       </c>
-      <c r="H90" t="s">
-        <v>202</v>
-      </c>
-      <c r="O90" s="1"/>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="L90" t="s">
+        <v>202</v>
+      </c>
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>3</v>
       </c>
       <c r="B91" t="s">
         <v>286</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91"/>
+      <c r="D91" t="s">
         <v>115</v>
       </c>
-      <c r="D91" s="1">
+      <c r="E91" s="1">
         <v>14</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>127</v>
       </c>
-      <c r="F91" t="s">
+      <c r="J91" t="s">
         <v>40</v>
       </c>
-      <c r="G91" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F91," O_",A91,"_",E91,REPT(" ",(20-(LEN(F91)+LEN(E91))))," = Nex",F91,"(",A91,", ",D91,", """,E91,""");")</f>
+      <c r="K91" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_11          = NexRadio(3, 14, "led_11");</v>
       </c>
-      <c r="H91" t="s">
-        <v>202</v>
-      </c>
-      <c r="O91" s="1"/>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="L91" t="s">
+        <v>202</v>
+      </c>
+      <c r="S91" s="1"/>
+    </row>
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>3</v>
       </c>
       <c r="B92" t="s">
         <v>286</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92"/>
+      <c r="D92" t="s">
         <v>115</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E92" s="1">
         <v>15</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>128</v>
       </c>
-      <c r="F92" t="s">
+      <c r="J92" t="s">
         <v>40</v>
       </c>
-      <c r="G92" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F92," O_",A92,"_",E92,REPT(" ",(20-(LEN(F92)+LEN(E92))))," = Nex",F92,"(",A92,", ",D92,", """,E92,""");")</f>
+      <c r="K92" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_12          = NexRadio(3, 15, "led_12");</v>
       </c>
-      <c r="H92" t="s">
-        <v>202</v>
-      </c>
-      <c r="O92" s="1"/>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="L92" t="s">
+        <v>202</v>
+      </c>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>3</v>
       </c>
       <c r="B93" t="s">
         <v>286</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93"/>
+      <c r="D93" t="s">
         <v>115</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E93" s="1">
         <v>16</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>129</v>
       </c>
-      <c r="F93" t="s">
+      <c r="J93" t="s">
         <v>40</v>
       </c>
-      <c r="G93" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F93," O_",A93,"_",E93,REPT(" ",(20-(LEN(F93)+LEN(E93))))," = Nex",F93,"(",A93,", ",D93,", """,E93,""");")</f>
+      <c r="K93" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_13          = NexRadio(3, 16, "led_13");</v>
       </c>
-      <c r="H93" t="s">
-        <v>202</v>
-      </c>
-      <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="L93" t="s">
+        <v>202</v>
+      </c>
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3</v>
       </c>
       <c r="B94" t="s">
         <v>286</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94"/>
+      <c r="D94" t="s">
         <v>115</v>
       </c>
-      <c r="D94" s="1">
+      <c r="E94" s="1">
         <v>17</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>130</v>
       </c>
-      <c r="F94" t="s">
+      <c r="J94" t="s">
         <v>40</v>
       </c>
-      <c r="G94" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F94," O_",A94,"_",E94,REPT(" ",(20-(LEN(F94)+LEN(E94))))," = Nex",F94,"(",A94,", ",D94,", """,E94,""");")</f>
+      <c r="K94" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_14          = NexRadio(3, 17, "led_14");</v>
       </c>
-      <c r="H94" t="s">
-        <v>202</v>
-      </c>
-      <c r="O94" s="1"/>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="L94" t="s">
+        <v>202</v>
+      </c>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>3</v>
       </c>
       <c r="B95" t="s">
         <v>286</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95"/>
+      <c r="D95" t="s">
         <v>115</v>
       </c>
-      <c r="D95" s="1">
+      <c r="E95" s="1">
         <v>18</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>131</v>
       </c>
-      <c r="F95" t="s">
+      <c r="J95" t="s">
         <v>40</v>
       </c>
-      <c r="G95" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F95," O_",A95,"_",E95,REPT(" ",(20-(LEN(F95)+LEN(E95))))," = Nex",F95,"(",A95,", ",D95,", """,E95,""");")</f>
+      <c r="K95" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_15          = NexRadio(3, 18, "led_15");</v>
       </c>
-      <c r="H95" t="s">
-        <v>202</v>
-      </c>
-      <c r="O95" s="1"/>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="L95" t="s">
+        <v>202</v>
+      </c>
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>3</v>
       </c>
       <c r="B96" t="s">
         <v>286</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96"/>
+      <c r="D96" t="s">
         <v>115</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="1">
         <v>19</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>132</v>
       </c>
-      <c r="F96" t="s">
+      <c r="J96" t="s">
         <v>40</v>
       </c>
-      <c r="G96" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F96," O_",A96,"_",E96,REPT(" ",(20-(LEN(F96)+LEN(E96))))," = Nex",F96,"(",A96,", ",D96,", """,E96,""");")</f>
+      <c r="K96" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexRadio O_3_led_16          = NexRadio(3, 19, "led_16");</v>
       </c>
-      <c r="H96" t="s">
-        <v>202</v>
-      </c>
-      <c r="O96" s="1"/>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="L96" t="s">
+        <v>202</v>
+      </c>
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" t="s">
         <v>287</v>
       </c>
-      <c r="D97" s="1">
+      <c r="C97"/>
+      <c r="E97" s="1">
         <v>0</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>287</v>
       </c>
-      <c r="F97" t="s">
+      <c r="J97" t="s">
         <v>284</v>
       </c>
-      <c r="G97" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F97," O_",A97,"_",E97,REPT(" ",(20-(LEN(F97)+LEN(E97))))," = Nex",F97,"(",A97,", ",D97,", """,E97,""");")</f>
+      <c r="K97" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexPage O_4_telefone         = NexPage(4, 0, "telefone");</v>
       </c>
-      <c r="H97" t="s">
-        <v>202</v>
-      </c>
-      <c r="O97" s="1"/>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="L97" t="s">
+        <v>202</v>
+      </c>
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98" t="s">
         <v>287</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98"/>
+      <c r="D98" t="s">
         <v>144</v>
       </c>
-      <c r="D98" s="1">
+      <c r="E98" s="1">
         <v>1</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>70</v>
       </c>
-      <c r="F98" t="s">
+      <c r="J98" t="s">
         <v>37</v>
       </c>
-      <c r="G98" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F98," O_",A98,"_",E98,REPT(" ",(20-(LEN(F98)+LEN(E98))))," = Nex",F98,"(",A98,", ",D98,", """,E98,""");")</f>
+      <c r="K98" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>NexHotspot O_4_bt_home       = NexHotspot(4, 1, "bt_home");</v>
       </c>
-      <c r="H98" t="s">
-        <v>202</v>
-      </c>
-      <c r="O98" s="1"/>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="L98" t="s">
+        <v>202</v>
+      </c>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" t="s">
         <v>287</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99"/>
+      <c r="D99" t="s">
         <v>0</v>
       </c>
-      <c r="D99" s="1">
+      <c r="E99" s="1">
         <v>2</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>162</v>
       </c>
-      <c r="F99" t="s">
+      <c r="J99" t="s">
         <v>25</v>
       </c>
-      <c r="G99" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F99," O_",A99,"_",E99,REPT(" ",(20-(LEN(F99)+LEN(E99))))," = Nex",F99,"(",A99,", ",D99,", """,E99,""");")</f>
+      <c r="K99" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J99," O_",A99,"_",F99,REPT(" ",(20-(LEN(J99)+LEN(F99))))," = Nex",J99,"(",A99,", ",E99,", """,F99,""");")</f>
         <v>NexText O_4_tx_mensagem      = NexText(4, 2, "tx_mensagem");</v>
       </c>
-      <c r="H99" t="s">
-        <v>202</v>
-      </c>
-      <c r="I99" s="1" t="s">
+      <c r="L99" t="s">
+        <v>202</v>
+      </c>
+      <c r="M99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O99" s="1"/>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100" t="s">
         <v>287</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100"/>
+      <c r="D100" t="s">
         <v>0</v>
       </c>
-      <c r="D100" s="1">
+      <c r="E100" s="1">
         <v>3</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>164</v>
       </c>
-      <c r="F100" t="s">
+      <c r="J100" t="s">
         <v>25</v>
       </c>
-      <c r="G100" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F100," O_",A100,"_",E100,REPT(" ",(20-(LEN(F100)+LEN(E100))))," = Nex",F100,"(",A100,", ",D100,", """,E100,""");")</f>
+      <c r="K100" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J100," O_",A100,"_",F100,REPT(" ",(20-(LEN(J100)+LEN(F100))))," = Nex",J100,"(",A100,", ",E100,", """,F100,""");")</f>
         <v>NexText O_4_tx_numero        = NexText(4, 3, "tx_numero");</v>
       </c>
-      <c r="H100" t="s">
-        <v>202</v>
-      </c>
-      <c r="I100" s="1" t="s">
+      <c r="L100" t="s">
+        <v>202</v>
+      </c>
+      <c r="M100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O100" s="1"/>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" t="s">
         <v>287</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101"/>
+      <c r="D101" t="s">
         <v>258</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E101" s="1">
         <v>4</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>167</v>
       </c>
-      <c r="F101" t="s">
+      <c r="J101" t="s">
         <v>85</v>
       </c>
-      <c r="G101" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F101," O_",A101,"_",E101,REPT(" ",(20-(LEN(F101)+LEN(E101))))," = Nex",F101,"(",A101,", ",D101,", """,E101,""");")</f>
+      <c r="K101" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J101," O_",A101,"_",F101,REPT(" ",(20-(LEN(J101)+LEN(F101))))," = Nex",J101,"(",A101,", ",E101,", """,F101,""");")</f>
         <v>NexButton O_4_bt_teclado     = NexButton(4, 4, "bt_teclado");</v>
       </c>
-      <c r="H101" t="s">
-        <v>202</v>
-      </c>
-      <c r="O101" s="1"/>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="L101" t="s">
+        <v>202</v>
+      </c>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" t="s">
         <v>287</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102"/>
+      <c r="D102" t="s">
         <v>258</v>
       </c>
-      <c r="D102" s="1">
+      <c r="E102" s="1">
         <v>6</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>165</v>
       </c>
-      <c r="F102" t="s">
+      <c r="J102" t="s">
         <v>85</v>
       </c>
-      <c r="G102" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F102," O_",A102,"_",E102,REPT(" ",(20-(LEN(F102)+LEN(E102))))," = Nex",F102,"(",A102,", ",D102,", """,E102,""");")</f>
+      <c r="K102" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J102," O_",A102,"_",F102,REPT(" ",(20-(LEN(J102)+LEN(F102))))," = Nex",J102,"(",A102,", ",E102,", """,F102,""");")</f>
         <v>NexButton O_4_bt_ligar       = NexButton(4, 6, "bt_ligar");</v>
       </c>
-      <c r="H102" t="s">
-        <v>202</v>
-      </c>
-      <c r="O102" s="1"/>
-    </row>
-    <row r="103" spans="1:15">
+      <c r="L102" t="s">
+        <v>202</v>
+      </c>
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4</v>
       </c>
       <c r="B103" t="s">
         <v>287</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103"/>
+      <c r="D103" t="s">
         <v>258</v>
       </c>
-      <c r="D103" s="1">
+      <c r="E103" s="1">
         <v>7</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>166</v>
       </c>
-      <c r="F103" t="s">
+      <c r="J103" t="s">
         <v>85</v>
       </c>
-      <c r="G103" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F103," O_",A103,"_",E103,REPT(" ",(20-(LEN(F103)+LEN(E103))))," = Nex",F103,"(",A103,", ",D103,", """,E103,""");")</f>
+      <c r="K103" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J103," O_",A103,"_",F103,REPT(" ",(20-(LEN(J103)+LEN(F103))))," = Nex",J103,"(",A103,", ",E103,", """,F103,""");")</f>
         <v>NexButton O_4_bt_desligar    = NexButton(4, 7, "bt_desligar");</v>
       </c>
-      <c r="H103" t="s">
-        <v>202</v>
-      </c>
-      <c r="O103" s="1"/>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="L103" t="s">
+        <v>202</v>
+      </c>
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>4</v>
       </c>
       <c r="B104" t="s">
         <v>287</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104"/>
+      <c r="D104" t="s">
         <v>178</v>
       </c>
-      <c r="D104" s="1">
+      <c r="E104" s="1">
         <v>8</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>168</v>
       </c>
-      <c r="F104" t="s">
+      <c r="J104" t="s">
         <v>37</v>
       </c>
-      <c r="G104" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F104," O_",A104,"_",E104,REPT(" ",(20-(LEN(F104)+LEN(E104))))," = Nex",F104,"(",A104,", ",D104,", """,E104,""");")</f>
+      <c r="K104" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J104," O_",A104,"_",F104,REPT(" ",(20-(LEN(J104)+LEN(F104))))," = Nex",J104,"(",A104,", ",E104,", """,F104,""");")</f>
         <v>NexHotspot O_4_bt_1          = NexHotspot(4, 8, "bt_1");</v>
       </c>
-      <c r="H104" t="s">
-        <v>202</v>
-      </c>
-      <c r="O104" s="1"/>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="L104" t="s">
+        <v>202</v>
+      </c>
+      <c r="S104" s="1"/>
+    </row>
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>4</v>
       </c>
       <c r="B105" t="s">
         <v>287</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105"/>
+      <c r="D105" t="s">
         <v>178</v>
       </c>
-      <c r="D105" s="1">
+      <c r="E105" s="1">
         <v>9</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>169</v>
       </c>
-      <c r="F105" t="s">
+      <c r="J105" t="s">
         <v>37</v>
       </c>
-      <c r="G105" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F105," O_",A105,"_",E105,REPT(" ",(20-(LEN(F105)+LEN(E105))))," = Nex",F105,"(",A105,", ",D105,", """,E105,""");")</f>
+      <c r="K105" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J105," O_",A105,"_",F105,REPT(" ",(20-(LEN(J105)+LEN(F105))))," = Nex",J105,"(",A105,", ",E105,", """,F105,""");")</f>
         <v>NexHotspot O_4_bt_2          = NexHotspot(4, 9, "bt_2");</v>
       </c>
-      <c r="H105" t="s">
-        <v>202</v>
-      </c>
-      <c r="O105" s="1"/>
-    </row>
-    <row r="106" spans="1:15">
+      <c r="L105" t="s">
+        <v>202</v>
+      </c>
+      <c r="S105" s="1"/>
+    </row>
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>4</v>
       </c>
       <c r="B106" t="s">
         <v>287</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106"/>
+      <c r="D106" t="s">
         <v>178</v>
       </c>
-      <c r="D106" s="1">
+      <c r="E106" s="1">
         <v>10</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>170</v>
       </c>
-      <c r="F106" t="s">
+      <c r="J106" t="s">
         <v>37</v>
       </c>
-      <c r="G106" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F106," O_",A106,"_",E106,REPT(" ",(20-(LEN(F106)+LEN(E106))))," = Nex",F106,"(",A106,", ",D106,", """,E106,""");")</f>
+      <c r="K106" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J106," O_",A106,"_",F106,REPT(" ",(20-(LEN(J106)+LEN(F106))))," = Nex",J106,"(",A106,", ",E106,", """,F106,""");")</f>
         <v>NexHotspot O_4_bt_3          = NexHotspot(4, 10, "bt_3");</v>
       </c>
-      <c r="H106" t="s">
-        <v>202</v>
-      </c>
-      <c r="O106" s="1"/>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="L106" t="s">
+        <v>202</v>
+      </c>
+      <c r="S106" s="1"/>
+    </row>
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>4</v>
       </c>
       <c r="B107" t="s">
         <v>287</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107"/>
+      <c r="D107" t="s">
         <v>178</v>
       </c>
-      <c r="D107" s="1">
+      <c r="E107" s="1">
         <v>11</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>173</v>
       </c>
-      <c r="F107" t="s">
+      <c r="J107" t="s">
         <v>37</v>
       </c>
-      <c r="G107" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F107," O_",A107,"_",E107,REPT(" ",(20-(LEN(F107)+LEN(E107))))," = Nex",F107,"(",A107,", ",D107,", """,E107,""");")</f>
+      <c r="K107" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J107," O_",A107,"_",F107,REPT(" ",(20-(LEN(J107)+LEN(F107))))," = Nex",J107,"(",A107,", ",E107,", """,F107,""");")</f>
         <v>NexHotspot O_4_bt_6          = NexHotspot(4, 11, "bt_6");</v>
       </c>
-      <c r="H107" t="s">
-        <v>202</v>
-      </c>
-      <c r="O107" s="1"/>
-    </row>
-    <row r="108" spans="1:15">
+      <c r="L107" t="s">
+        <v>202</v>
+      </c>
+      <c r="S107" s="1"/>
+    </row>
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>4</v>
       </c>
       <c r="B108" t="s">
         <v>287</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108"/>
+      <c r="D108" t="s">
         <v>178</v>
       </c>
-      <c r="D108" s="1">
+      <c r="E108" s="1">
         <v>12</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>172</v>
       </c>
-      <c r="F108" t="s">
+      <c r="J108" t="s">
         <v>37</v>
       </c>
-      <c r="G108" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F108," O_",A108,"_",E108,REPT(" ",(20-(LEN(F108)+LEN(E108))))," = Nex",F108,"(",A108,", ",D108,", """,E108,""");")</f>
+      <c r="K108" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J108," O_",A108,"_",F108,REPT(" ",(20-(LEN(J108)+LEN(F108))))," = Nex",J108,"(",A108,", ",E108,", """,F108,""");")</f>
         <v>NexHotspot O_4_bt_5          = NexHotspot(4, 12, "bt_5");</v>
       </c>
-      <c r="H108" t="s">
-        <v>202</v>
-      </c>
-      <c r="O108" s="1"/>
-    </row>
-    <row r="109" spans="1:15">
+      <c r="L108" t="s">
+        <v>202</v>
+      </c>
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>4</v>
       </c>
       <c r="B109" t="s">
         <v>287</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109"/>
+      <c r="D109" t="s">
         <v>178</v>
       </c>
-      <c r="D109" s="1">
+      <c r="E109" s="1">
         <v>13</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>171</v>
       </c>
-      <c r="F109" t="s">
+      <c r="J109" t="s">
         <v>37</v>
       </c>
-      <c r="G109" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F109," O_",A109,"_",E109,REPT(" ",(20-(LEN(F109)+LEN(E109))))," = Nex",F109,"(",A109,", ",D109,", """,E109,""");")</f>
+      <c r="K109" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J109," O_",A109,"_",F109,REPT(" ",(20-(LEN(J109)+LEN(F109))))," = Nex",J109,"(",A109,", ",E109,", """,F109,""");")</f>
         <v>NexHotspot O_4_bt_4          = NexHotspot(4, 13, "bt_4");</v>
       </c>
-      <c r="H109" t="s">
-        <v>202</v>
-      </c>
-      <c r="O109" s="1"/>
-    </row>
-    <row r="110" spans="1:15">
+      <c r="L109" t="s">
+        <v>202</v>
+      </c>
+      <c r="S109" s="1"/>
+    </row>
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>4</v>
       </c>
       <c r="B110" t="s">
         <v>287</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110"/>
+      <c r="D110" t="s">
         <v>178</v>
       </c>
-      <c r="D110" s="1">
+      <c r="E110" s="1">
         <v>14</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>176</v>
       </c>
-      <c r="F110" t="s">
+      <c r="J110" t="s">
         <v>37</v>
       </c>
-      <c r="G110" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F110," O_",A110,"_",E110,REPT(" ",(20-(LEN(F110)+LEN(E110))))," = Nex",F110,"(",A110,", ",D110,", """,E110,""");")</f>
+      <c r="K110" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J110," O_",A110,"_",F110,REPT(" ",(20-(LEN(J110)+LEN(F110))))," = Nex",J110,"(",A110,", ",E110,", """,F110,""");")</f>
         <v>NexHotspot O_4_bt_9          = NexHotspot(4, 14, "bt_9");</v>
       </c>
-      <c r="H110" t="s">
-        <v>202</v>
-      </c>
-      <c r="O110" s="1"/>
-    </row>
-    <row r="111" spans="1:15">
+      <c r="L110" t="s">
+        <v>202</v>
+      </c>
+      <c r="S110" s="1"/>
+    </row>
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>4</v>
       </c>
       <c r="B111" t="s">
         <v>287</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111"/>
+      <c r="D111" t="s">
         <v>178</v>
       </c>
-      <c r="D111" s="1">
+      <c r="E111" s="1">
         <v>15</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>174</v>
       </c>
-      <c r="F111" t="s">
+      <c r="J111" t="s">
         <v>37</v>
       </c>
-      <c r="G111" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F111," O_",A111,"_",E111,REPT(" ",(20-(LEN(F111)+LEN(E111))))," = Nex",F111,"(",A111,", ",D111,", """,E111,""");")</f>
+      <c r="K111" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J111," O_",A111,"_",F111,REPT(" ",(20-(LEN(J111)+LEN(F111))))," = Nex",J111,"(",A111,", ",E111,", """,F111,""");")</f>
         <v>NexHotspot O_4_bt_7          = NexHotspot(4, 15, "bt_7");</v>
       </c>
-      <c r="H111" t="s">
-        <v>202</v>
-      </c>
-      <c r="O111" s="1"/>
-    </row>
-    <row r="112" spans="1:15">
+      <c r="L111" t="s">
+        <v>202</v>
+      </c>
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>4</v>
       </c>
       <c r="B112" t="s">
         <v>287</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112"/>
+      <c r="D112" t="s">
         <v>178</v>
       </c>
-      <c r="D112" s="1">
+      <c r="E112" s="1">
         <v>16</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>175</v>
       </c>
-      <c r="F112" t="s">
+      <c r="J112" t="s">
         <v>37</v>
       </c>
-      <c r="G112" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F112," O_",A112,"_",E112,REPT(" ",(20-(LEN(F112)+LEN(E112))))," = Nex",F112,"(",A112,", ",D112,", """,E112,""");")</f>
+      <c r="K112" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J112," O_",A112,"_",F112,REPT(" ",(20-(LEN(J112)+LEN(F112))))," = Nex",J112,"(",A112,", ",E112,", """,F112,""");")</f>
         <v>NexHotspot O_4_bt_8          = NexHotspot(4, 16, "bt_8");</v>
       </c>
-      <c r="H112" t="s">
-        <v>202</v>
-      </c>
-      <c r="O112" s="1"/>
-    </row>
-    <row r="113" spans="1:15">
+      <c r="L112" t="s">
+        <v>202</v>
+      </c>
+      <c r="S112" s="1"/>
+    </row>
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>4</v>
       </c>
       <c r="B113" t="s">
         <v>287</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113"/>
+      <c r="D113" t="s">
         <v>41</v>
       </c>
-      <c r="D113" s="1">
+      <c r="E113" s="1">
         <v>17</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>104</v>
       </c>
-      <c r="F113" t="s">
+      <c r="J113" t="s">
         <v>107</v>
       </c>
-      <c r="G113" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F113," O_",A113,"_",E113,REPT(" ",(20-(LEN(F113)+LEN(E113))))," = Nex",F113,"(",A113,", ",D113,", """,E113,""");")</f>
+      <c r="K113" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J113," O_",A113,"_",F113,REPT(" ",(20-(LEN(J113)+LEN(F113))))," = Nex",J113,"(",A113,", ",E113,", """,F113,""");")</f>
         <v>NexVariable O_4_va0          = NexVariable(4, 17, "va0");</v>
       </c>
-      <c r="H113" t="s">
-        <v>202</v>
-      </c>
-      <c r="I113" s="1" t="s">
+      <c r="L113" t="s">
+        <v>202</v>
+      </c>
+      <c r="M113" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="N113" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O113" s="1"/>
-    </row>
-    <row r="114" spans="1:15">
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>4</v>
       </c>
       <c r="B114" t="s">
         <v>287</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114"/>
+      <c r="D114" t="s">
         <v>41</v>
       </c>
-      <c r="D114" s="1">
+      <c r="E114" s="1">
         <v>18</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>105</v>
       </c>
-      <c r="F114" t="s">
+      <c r="J114" t="s">
         <v>107</v>
       </c>
-      <c r="G114" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F114," O_",A114,"_",E114,REPT(" ",(20-(LEN(F114)+LEN(E114))))," = Nex",F114,"(",A114,", ",D114,", """,E114,""");")</f>
+      <c r="K114" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J114," O_",A114,"_",F114,REPT(" ",(20-(LEN(J114)+LEN(F114))))," = Nex",J114,"(",A114,", ",E114,", """,F114,""");")</f>
         <v>NexVariable O_4_va1          = NexVariable(4, 18, "va1");</v>
       </c>
-      <c r="H114" t="s">
-        <v>202</v>
-      </c>
-      <c r="I114" s="1" t="s">
+      <c r="L114" t="s">
+        <v>202</v>
+      </c>
+      <c r="M114" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="N114" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O114" s="1"/>
-    </row>
-    <row r="115" spans="1:15">
+      <c r="S114" s="1"/>
+    </row>
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>4</v>
       </c>
       <c r="B115" t="s">
         <v>287</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115"/>
+      <c r="D115" t="s">
         <v>41</v>
       </c>
-      <c r="D115" s="1">
+      <c r="E115" s="1">
         <v>19</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>180</v>
       </c>
-      <c r="F115" t="s">
+      <c r="J115" t="s">
         <v>107</v>
       </c>
-      <c r="G115" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F115," O_",A115,"_",E115,REPT(" ",(20-(LEN(F115)+LEN(E115))))," = Nex",F115,"(",A115,", ",D115,", """,E115,""");")</f>
+      <c r="K115" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J115," O_",A115,"_",F115,REPT(" ",(20-(LEN(J115)+LEN(F115))))," = Nex",J115,"(",A115,", ",E115,", """,F115,""");")</f>
         <v>NexVariable O_4_tecla        = NexVariable(4, 19, "tecla");</v>
       </c>
-      <c r="H115" t="s">
-        <v>202</v>
-      </c>
-      <c r="I115" s="1" t="s">
+      <c r="L115" t="s">
+        <v>202</v>
+      </c>
+      <c r="M115" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="N115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O115" s="1"/>
-    </row>
-    <row r="116" spans="1:15">
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>4</v>
       </c>
       <c r="B116" t="s">
         <v>287</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116"/>
+      <c r="D116" t="s">
         <v>178</v>
       </c>
-      <c r="D116" s="1">
+      <c r="E116" s="1">
         <v>20</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>179</v>
       </c>
-      <c r="F116" t="s">
+      <c r="J116" t="s">
         <v>37</v>
       </c>
-      <c r="G116" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F116," O_",A116,"_",E116,REPT(" ",(20-(LEN(F116)+LEN(E116))))," = Nex",F116,"(",A116,", ",D116,", """,E116,""");")</f>
+      <c r="K116" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J116," O_",A116,"_",F116,REPT(" ",(20-(LEN(J116)+LEN(F116))))," = Nex",J116,"(",A116,", ",E116,", """,F116,""");")</f>
         <v>NexHotspot O_4_bt_back_space = NexHotspot(4, 20, "bt_back_space");</v>
       </c>
-      <c r="H116" t="s">
-        <v>202</v>
-      </c>
-      <c r="O116" s="1"/>
-    </row>
-    <row r="117" spans="1:15">
+      <c r="L116" t="s">
+        <v>202</v>
+      </c>
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>4</v>
       </c>
       <c r="B117" t="s">
         <v>287</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117"/>
+      <c r="D117" t="s">
         <v>178</v>
       </c>
-      <c r="D117" s="1">
+      <c r="E117" s="1">
         <v>21</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>177</v>
       </c>
-      <c r="F117" t="s">
+      <c r="J117" t="s">
         <v>37</v>
       </c>
-      <c r="G117" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F117," O_",A117,"_",E117,REPT(" ",(20-(LEN(F117)+LEN(E117))))," = Nex",F117,"(",A117,", ",D117,", """,E117,""");")</f>
+      <c r="K117" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J117," O_",A117,"_",F117,REPT(" ",(20-(LEN(J117)+LEN(F117))))," = Nex",J117,"(",A117,", ",E117,", """,F117,""");")</f>
         <v>NexHotspot O_4_bt_0          = NexHotspot(4, 21, "bt_0");</v>
       </c>
-      <c r="H117" t="s">
-        <v>202</v>
-      </c>
-      <c r="O117" s="1"/>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="L117" t="s">
+        <v>202</v>
+      </c>
+      <c r="S117" s="1"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" t="s">
         <v>288</v>
       </c>
-      <c r="D118" s="1">
+      <c r="C118" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E118" s="1">
         <v>0</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>288</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="str">
+        <f>IF(C118="S",_xlfn.CONCAT(" O_",A118,"_",F118),"")</f>
+        <v/>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" ref="H118" si="3">IF(C118="S",_xlfn.CONCAT(G118,".attachPop(",G118,"PopCallback);"),"")</f>
+        <v/>
+      </c>
+      <c r="I118" t="str">
+        <f>IF(C118="S",_xlfn.CONCAT("void ",G118,"PopCallback(void *ptr) { }"),"")</f>
+        <v/>
+      </c>
+      <c r="J118" t="s">
         <v>284</v>
       </c>
-      <c r="G118" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F118," O_",A118,"_",E118,REPT(" ",(20-(LEN(F118)+LEN(E118))))," = Nex",F118,"(",A118,", ",D118,", """,E118,""");")</f>
-        <v>NexPage O_5_radio            = NexPage(5, 0, "radio");</v>
-      </c>
-      <c r="H118" t="s">
-        <v>202</v>
-      </c>
-      <c r="O118" s="1"/>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="K118" s="13" t="str">
+        <f>IF(C118="S",_xlfn.CONCAT("Nex",J118," O_",A118,"_",F118,REPT(" ",(20-(LEN(J118)+LEN(F118))))," = Nex",J118,"(",A118,", ",E118,", """,F118,""");"),"")</f>
+        <v/>
+      </c>
+      <c r="L118" t="s">
+        <v>202</v>
+      </c>
+      <c r="S118" s="1"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" t="s">
         <v>288</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D119" t="s">
         <v>93</v>
       </c>
-      <c r="D119" s="1">
+      <c r="E119" s="1">
         <v>1</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>74</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="str">
+        <f t="shared" ref="G119:G142" si="4">IF(C119="S",_xlfn.CONCAT(" O_",A119,"_",F119),"")</f>
+        <v/>
+      </c>
+      <c r="H119" t="str">
+        <f>IF(C119="S",_xlfn.CONCAT(G119,".attachPop(",G119,"PopCallback);"),"")</f>
+        <v/>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" ref="I119:I142" si="5">IF(C119="S",_xlfn.CONCAT("void ",G119,"PopCallback(void *ptr) { }"),"")</f>
+        <v/>
+      </c>
+      <c r="J119" t="s">
         <v>139</v>
       </c>
-      <c r="G119" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F119," O_",A119,"_",E119,REPT(" ",(20-(LEN(F119)+LEN(E119))))," = Nex",F119,"(",A119,", ",D119,", """,E119,""");")</f>
-        <v>NexSlider O_5_sl_freq        = NexSlider(5, 1, "sl_freq");</v>
-      </c>
-      <c r="H119" t="s">
-        <v>202</v>
-      </c>
-      <c r="I119" s="1" t="s">
+      <c r="K119" s="13" t="str">
+        <f t="shared" ref="K119:K142" si="6">IF(C119="S",_xlfn.CONCAT("Nex",J119," O_",A119,"_",F119,REPT(" ",(20-(LEN(J119)+LEN(F119))))," = Nex",J119,"(",A119,", ",E119,", """,F119,""");"),"")</f>
+        <v/>
+      </c>
+      <c r="L119" t="s">
+        <v>202</v>
+      </c>
+      <c r="M119" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K119" s="1">
+      <c r="O119" s="1">
         <v>860</v>
       </c>
-      <c r="L119" s="1">
+      <c r="P119" s="1">
         <v>1100</v>
       </c>
-      <c r="M119" s="1">
+      <c r="Q119" s="1">
         <v>86</v>
       </c>
-      <c r="N119" s="1">
+      <c r="R119" s="1">
         <v>110</v>
       </c>
-      <c r="O119" s="1">
+      <c r="S119" s="1">
         <v>1040</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" t="s">
         <v>288</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D120" t="s">
         <v>87</v>
       </c>
-      <c r="D120" s="1">
+      <c r="E120" s="1">
         <v>2</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="F120" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_home</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" ref="H120:H142" si="7">IF(C120="S",_xlfn.CONCAT(G120,".attachPop(",G120,"PopCallback);"),"")</f>
+        <v xml:space="preserve"> O_5_bt_home.attachPop( O_5_bt_homePopCallback);</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_homePopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J120" t="s">
         <v>37</v>
       </c>
-      <c r="G120" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F120," O_",A120,"_",E120,REPT(" ",(20-(LEN(F120)+LEN(E120))))," = Nex",F120,"(",A120,", ",D120,", """,E120,""");")</f>
+      <c r="K120" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexHotspot O_5_bt_home       = NexHotspot(5, 2, "bt_home");</v>
       </c>
-      <c r="H120" t="s">
-        <v>202</v>
-      </c>
-      <c r="O120" s="1"/>
-    </row>
-    <row r="121" spans="1:15">
+      <c r="L120" t="s">
+        <v>202</v>
+      </c>
+      <c r="S120" s="1"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" t="s">
         <v>288</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D121" t="s">
         <v>41</v>
       </c>
-      <c r="D121" s="1">
+      <c r="E121" s="1">
         <v>3</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>104</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J121" t="s">
         <v>107</v>
       </c>
-      <c r="G121" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F121," O_",A121,"_",E121,REPT(" ",(20-(LEN(F121)+LEN(E121))))," = Nex",F121,"(",A121,", ",D121,", """,E121,""");")</f>
-        <v>NexVariable O_5_va0          = NexVariable(5, 3, "va0");</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="K121" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L121" t="s">
         <v>203</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="M121" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="N121" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O121" s="1"/>
-    </row>
-    <row r="122" spans="1:15">
+      <c r="S121" s="1"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
       <c r="B122" t="s">
         <v>288</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D122" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="1">
+      <c r="E122" s="1">
         <v>4</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>105</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J122" t="s">
         <v>107</v>
       </c>
-      <c r="G122" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F122," O_",A122,"_",E122,REPT(" ",(20-(LEN(F122)+LEN(E122))))," = Nex",F122,"(",A122,", ",D122,", """,E122,""");")</f>
-        <v>NexVariable O_5_va1          = NexVariable(5, 4, "va1");</v>
-      </c>
-      <c r="H122" t="s">
+      <c r="K122" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L122" t="s">
         <v>203</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="M122" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="N122" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O122" s="1"/>
-    </row>
-    <row r="123" spans="1:15">
+      <c r="S122" s="1"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
       <c r="B123" t="s">
         <v>288</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D123" t="s">
         <v>41</v>
       </c>
-      <c r="D123" s="1">
+      <c r="E123" s="1">
         <v>5</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>106</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J123" t="s">
         <v>107</v>
       </c>
-      <c r="G123" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F123," O_",A123,"_",E123,REPT(" ",(20-(LEN(F123)+LEN(E123))))," = Nex",F123,"(",A123,", ",D123,", """,E123,""");")</f>
-        <v>NexVariable O_5_va2          = NexVariable(5, 5, "va2");</v>
-      </c>
-      <c r="H123" t="s">
+      <c r="K123" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L123" t="s">
         <v>203</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="M123" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="N123" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O123" s="1"/>
-    </row>
-    <row r="124" spans="1:15">
+      <c r="S123" s="1"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
       <c r="B124" t="s">
         <v>288</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D124" t="s">
         <v>90</v>
       </c>
-      <c r="D124" s="1">
+      <c r="E124" s="1">
         <v>6</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_tx_frequencia</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_tx_frequencia.attachPop( O_5_tx_frequenciaPopCallback);</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_tx_frequenciaPopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J124" t="s">
         <v>25</v>
       </c>
-      <c r="G124" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F124," O_",A124,"_",E124,REPT(" ",(20-(LEN(F124)+LEN(E124))))," = Nex",F124,"(",A124,", ",D124,", """,E124,""");")</f>
+      <c r="K124" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexText O_5_tx_frequencia    = NexText(5, 6, "tx_frequencia");</v>
       </c>
-      <c r="H124" t="s">
-        <v>202</v>
-      </c>
-      <c r="I124" s="1" t="s">
+      <c r="L124" t="s">
+        <v>202</v>
+      </c>
+      <c r="M124" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="N124" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O124" s="1">
+      <c r="S124" s="1">
         <v>1040</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
       <c r="B125" t="s">
         <v>288</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D125" t="s">
         <v>257</v>
       </c>
-      <c r="D125" s="1">
+      <c r="E125" s="1">
         <v>8</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_tx_banda</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_tx_banda.attachPop( O_5_tx_bandaPopCallback);</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_tx_bandaPopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J125" t="s">
         <v>25</v>
       </c>
-      <c r="G125" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F125," O_",A125,"_",E125,REPT(" ",(20-(LEN(F125)+LEN(E125))))," = Nex",F125,"(",A125,", ",D125,", """,E125,""");")</f>
+      <c r="K125" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexText O_5_tx_banda         = NexText(5, 8, "tx_banda");</v>
       </c>
-      <c r="H125" t="s">
-        <v>202</v>
-      </c>
-      <c r="I125" s="1" t="s">
+      <c r="L125" t="s">
+        <v>202</v>
+      </c>
+      <c r="M125" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="N125" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O125" s="1"/>
-    </row>
-    <row r="126" spans="1:15">
+      <c r="S125" s="1"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
       <c r="B126" t="s">
         <v>288</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D126" t="s">
         <v>88</v>
       </c>
-      <c r="D126" s="1">
+      <c r="E126" s="1">
         <v>9</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>39</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_setup</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_setup.attachPop( O_5_bt_setupPopCallback);</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_setupPopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J126" t="s">
         <v>37</v>
       </c>
-      <c r="G126" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F126," O_",A126,"_",E126,REPT(" ",(20-(LEN(F126)+LEN(E126))))," = Nex",F126,"(",A126,", ",D126,", """,E126,""");")</f>
+      <c r="K126" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexHotspot O_5_bt_setup      = NexHotspot(5, 9, "bt_setup");</v>
       </c>
-      <c r="H126" t="s">
-        <v>202</v>
-      </c>
-      <c r="O126" s="1"/>
-    </row>
-    <row r="127" spans="1:15">
+      <c r="L126" t="s">
+        <v>202</v>
+      </c>
+      <c r="S126" s="1"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5</v>
       </c>
       <c r="B127" t="s">
         <v>288</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D127" t="s">
         <v>92</v>
       </c>
-      <c r="D127" s="1">
+      <c r="E127" s="1">
         <v>10</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>184</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_tx_estacao</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_tx_estacao.attachPop( O_5_tx_estacaoPopCallback);</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_tx_estacaoPopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J127" t="s">
         <v>25</v>
       </c>
-      <c r="G127" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F127," O_",A127,"_",E127,REPT(" ",(20-(LEN(F127)+LEN(E127))))," = Nex",F127,"(",A127,", ",D127,", """,E127,""");")</f>
+      <c r="K127" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexText O_5_tx_estacao       = NexText(5, 10, "tx_estacao");</v>
       </c>
-      <c r="H127" t="s">
-        <v>202</v>
-      </c>
-      <c r="I127" s="1" t="s">
+      <c r="L127" t="s">
+        <v>202</v>
+      </c>
+      <c r="M127" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J127" s="1" t="s">
+      <c r="N127" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O127" s="1"/>
-    </row>
-    <row r="128" spans="1:15">
+      <c r="S127" s="1"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
       <c r="B128" t="s">
         <v>288</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D128" t="s">
         <v>91</v>
       </c>
-      <c r="D128" s="1">
+      <c r="E128" s="1">
         <v>11</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>185</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_tx_programacao</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_tx_programacao.attachPop( O_5_tx_programacaoPopCallback);</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_tx_programacaoPopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J128" t="s">
         <v>25</v>
       </c>
-      <c r="G128" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F128," O_",A128,"_",E128,REPT(" ",(20-(LEN(F128)+LEN(E128))))," = Nex",F128,"(",A128,", ",D128,", """,E128,""");")</f>
+      <c r="K128" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexText O_5_tx_programacao   = NexText(5, 11, "tx_programacao");</v>
       </c>
-      <c r="H128" t="s">
-        <v>202</v>
-      </c>
-      <c r="I128" s="1" t="s">
+      <c r="L128" t="s">
+        <v>202</v>
+      </c>
+      <c r="M128" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="N128" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O128" s="1"/>
-    </row>
-    <row r="129" spans="1:15">
+      <c r="S128" s="1"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>5</v>
       </c>
       <c r="B129" t="s">
         <v>288</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D129" t="s">
         <v>95</v>
       </c>
-      <c r="D129" s="1">
+      <c r="E129" s="1">
         <v>12</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>76</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_next</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_next.attachPop( O_5_bt_nextPopCallback);</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_nextPopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J129" t="s">
         <v>37</v>
       </c>
-      <c r="G129" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F129," O_",A129,"_",E129,REPT(" ",(20-(LEN(F129)+LEN(E129))))," = Nex",F129,"(",A129,", ",D129,", """,E129,""");")</f>
+      <c r="K129" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexHotspot O_5_bt_next       = NexHotspot(5, 12, "bt_next");</v>
       </c>
-      <c r="H129" t="s">
-        <v>202</v>
-      </c>
-      <c r="O129" s="1"/>
-    </row>
-    <row r="130" spans="1:15">
+      <c r="L129" t="s">
+        <v>202</v>
+      </c>
+      <c r="S129" s="1"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>5</v>
       </c>
       <c r="B130" t="s">
         <v>288</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D130" t="s">
         <v>94</v>
       </c>
-      <c r="D130" s="1">
+      <c r="E130" s="1">
         <v>13</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>75</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_prev</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_prev.attachPop( O_5_bt_prevPopCallback);</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_prevPopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J130" t="s">
         <v>37</v>
       </c>
-      <c r="G130" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F130," O_",A130,"_",E130,REPT(" ",(20-(LEN(F130)+LEN(E130))))," = Nex",F130,"(",A130,", ",D130,", """,E130,""");")</f>
+      <c r="K130" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexHotspot O_5_bt_prev       = NexHotspot(5, 13, "bt_prev");</v>
       </c>
-      <c r="H130" t="s">
-        <v>202</v>
-      </c>
-      <c r="O130" s="1"/>
-    </row>
-    <row r="131" spans="1:15">
+      <c r="L130" t="s">
+        <v>202</v>
+      </c>
+      <c r="S130" s="1"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>5</v>
       </c>
       <c r="B131" t="s">
         <v>288</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D131" t="s">
         <v>96</v>
       </c>
-      <c r="D131" s="1">
+      <c r="E131" s="1">
         <v>14</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>77</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_p1</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_p1.attachPop( O_5_bt_p1PopCallback);</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_p1PopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J131" t="s">
         <v>85</v>
       </c>
-      <c r="G131" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F131," O_",A131,"_",E131,REPT(" ",(20-(LEN(F131)+LEN(E131))))," = Nex",F131,"(",A131,", ",D131,", """,E131,""");")</f>
+      <c r="K131" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexButton O_5_bt_p1          = NexButton(5, 14, "bt_p1");</v>
       </c>
-      <c r="H131" t="s">
-        <v>202</v>
-      </c>
-      <c r="I131" s="1" t="s">
+      <c r="L131" t="s">
+        <v>202</v>
+      </c>
+      <c r="M131" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="N131" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O131" s="1"/>
-    </row>
-    <row r="132" spans="1:15">
+      <c r="S131" s="1"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>5</v>
       </c>
       <c r="B132" t="s">
         <v>288</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132" t="s">
         <v>89</v>
       </c>
-      <c r="D132" s="1">
+      <c r="E132" s="1">
         <v>15</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J132" t="s">
         <v>279</v>
       </c>
-      <c r="G132" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F132," O_",A132,"_",E132,REPT(" ",(20-(LEN(F132)+LEN(E132))))," = Nex",F132,"(",A132,", ",D132,", """,E132,""");")</f>
-        <v>NexProgressBar O_5_pb_volume = NexProgressBar(5, 15, "pb_volume");</v>
-      </c>
-      <c r="H132" t="s">
-        <v>202</v>
-      </c>
-      <c r="I132" s="1" t="s">
+      <c r="K132" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L132" t="s">
+        <v>202</v>
+      </c>
+      <c r="M132" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K132" s="1">
+      <c r="O132" s="1">
         <v>0</v>
       </c>
-      <c r="L132" s="1">
+      <c r="P132" s="1">
         <v>100</v>
       </c>
-      <c r="M132" s="1">
+      <c r="Q132" s="1">
         <v>0</v>
       </c>
-      <c r="N132" s="1">
+      <c r="R132" s="1">
         <v>15</v>
       </c>
-      <c r="O132" s="1">
+      <c r="S132" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>5</v>
       </c>
       <c r="B133" t="s">
         <v>288</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D133" t="s">
         <v>89</v>
       </c>
-      <c r="D133" s="1">
+      <c r="E133" s="1">
         <v>16</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>133</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_up</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_up.attachPop( O_5_bt_upPopCallback);</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_upPopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J133" t="s">
         <v>85</v>
       </c>
-      <c r="G133" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F133," O_",A133,"_",E133,REPT(" ",(20-(LEN(F133)+LEN(E133))))," = Nex",F133,"(",A133,", ",D133,", """,E133,""");")</f>
+      <c r="K133" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexButton O_5_bt_up          = NexButton(5, 16, "bt_up");</v>
       </c>
-      <c r="H133" t="s">
-        <v>202</v>
-      </c>
-      <c r="O133" s="1"/>
-    </row>
-    <row r="134" spans="1:15">
+      <c r="L133" t="s">
+        <v>202</v>
+      </c>
+      <c r="S133" s="1"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>5</v>
       </c>
       <c r="B134" t="s">
         <v>288</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D134" t="s">
         <v>89</v>
       </c>
-      <c r="D134" s="1">
+      <c r="E134" s="1">
         <v>17</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>134</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_down</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_down.attachPop( O_5_bt_downPopCallback);</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_downPopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J134" t="s">
         <v>85</v>
       </c>
-      <c r="G134" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F134," O_",A134,"_",E134,REPT(" ",(20-(LEN(F134)+LEN(E134))))," = Nex",F134,"(",A134,", ",D134,", """,E134,""");")</f>
+      <c r="K134" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexButton O_5_bt_down        = NexButton(5, 17, "bt_down");</v>
       </c>
-      <c r="H134" t="s">
-        <v>202</v>
-      </c>
-      <c r="I134" s="1" t="s">
+      <c r="L134" t="s">
+        <v>202</v>
+      </c>
+      <c r="M134" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O134" s="1"/>
-    </row>
-    <row r="135" spans="1:15">
+      <c r="S134" s="1"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>5</v>
       </c>
       <c r="B135" t="s">
         <v>288</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D135" t="s">
         <v>89</v>
       </c>
-      <c r="D135" s="1">
+      <c r="E135" s="1">
         <v>18</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_mute</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_mute.attachPop( O_5_bt_mutePopCallback);</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_mutePopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J135" t="s">
         <v>280</v>
       </c>
-      <c r="G135" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F135," O_",A135,"_",E135,REPT(" ",(20-(LEN(F135)+LEN(E135))))," = Nex",F135,"(",A135,", ",D135,", """,E135,""");")</f>
+      <c r="K135" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexDSButton O_5_bt_mute      = NexDSButton(5, 18, "bt_mute");</v>
       </c>
-      <c r="H135" t="s">
-        <v>202</v>
-      </c>
-      <c r="I135" s="1" t="s">
+      <c r="L135" t="s">
+        <v>202</v>
+      </c>
+      <c r="M135" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K135" s="1">
-        <v>0</v>
-      </c>
-      <c r="L135" s="1">
-        <v>1</v>
       </c>
       <c r="O135" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:15">
+      <c r="P135" s="1">
+        <v>1</v>
+      </c>
+      <c r="S135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>5</v>
       </c>
       <c r="B136" t="s">
         <v>288</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D136" t="s">
         <v>97</v>
       </c>
-      <c r="D136" s="1">
+      <c r="E136" s="1">
         <v>19</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>78</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_p2</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_p2.attachPop( O_5_bt_p2PopCallback);</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_p2PopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J136" t="s">
         <v>85</v>
       </c>
-      <c r="G136" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F136," O_",A136,"_",E136,REPT(" ",(20-(LEN(F136)+LEN(E136))))," = Nex",F136,"(",A136,", ",D136,", """,E136,""");")</f>
+      <c r="K136" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexButton O_5_bt_p2          = NexButton(5, 19, "bt_p2");</v>
       </c>
-      <c r="H136" t="s">
-        <v>202</v>
-      </c>
-      <c r="I136" s="1" t="s">
+      <c r="L136" t="s">
+        <v>202</v>
+      </c>
+      <c r="M136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="N136" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O136" s="1"/>
-    </row>
-    <row r="137" spans="1:15">
+      <c r="S136" s="1"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>5</v>
       </c>
       <c r="B137" t="s">
         <v>288</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D137" t="s">
         <v>98</v>
       </c>
-      <c r="D137" s="1">
+      <c r="E137" s="1">
         <v>20</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>79</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_p3</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_p3.attachPop( O_5_bt_p3PopCallback);</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_p3PopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J137" t="s">
         <v>85</v>
       </c>
-      <c r="G137" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F137," O_",A137,"_",E137,REPT(" ",(20-(LEN(F137)+LEN(E137))))," = Nex",F137,"(",A137,", ",D137,", """,E137,""");")</f>
+      <c r="K137" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexButton O_5_bt_p3          = NexButton(5, 20, "bt_p3");</v>
       </c>
-      <c r="H137" t="s">
-        <v>202</v>
-      </c>
-      <c r="I137" s="1" t="s">
+      <c r="L137" t="s">
+        <v>202</v>
+      </c>
+      <c r="M137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="N137" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O137" s="1"/>
-    </row>
-    <row r="138" spans="1:15">
+      <c r="S137" s="1"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>5</v>
       </c>
       <c r="B138" t="s">
         <v>288</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D138" t="s">
         <v>99</v>
       </c>
-      <c r="D138" s="1">
+      <c r="E138" s="1">
         <v>21</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>80</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_p4</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_p4.attachPop( O_5_bt_p4PopCallback);</v>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_p4PopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J138" t="s">
         <v>85</v>
       </c>
-      <c r="G138" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F138," O_",A138,"_",E138,REPT(" ",(20-(LEN(F138)+LEN(E138))))," = Nex",F138,"(",A138,", ",D138,", """,E138,""");")</f>
+      <c r="K138" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexButton O_5_bt_p4          = NexButton(5, 21, "bt_p4");</v>
       </c>
-      <c r="H138" t="s">
-        <v>202</v>
-      </c>
-      <c r="I138" s="1" t="s">
+      <c r="L138" t="s">
+        <v>202</v>
+      </c>
+      <c r="M138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="N138" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O138" s="1"/>
-    </row>
-    <row r="139" spans="1:15">
+      <c r="S138" s="1"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>5</v>
       </c>
       <c r="B139" t="s">
         <v>288</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D139" t="s">
         <v>100</v>
       </c>
-      <c r="D139" s="1">
+      <c r="E139" s="1">
         <v>22</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>81</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_p5</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_p5.attachPop( O_5_bt_p5PopCallback);</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_p5PopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J139" t="s">
         <v>85</v>
       </c>
-      <c r="G139" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F139," O_",A139,"_",E139,REPT(" ",(20-(LEN(F139)+LEN(E139))))," = Nex",F139,"(",A139,", ",D139,", """,E139,""");")</f>
+      <c r="K139" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexButton O_5_bt_p5          = NexButton(5, 22, "bt_p5");</v>
       </c>
-      <c r="H139" t="s">
-        <v>202</v>
-      </c>
-      <c r="I139" s="1" t="s">
+      <c r="L139" t="s">
+        <v>202</v>
+      </c>
+      <c r="M139" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="N139" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O139" s="1"/>
-    </row>
-    <row r="140" spans="1:15">
+      <c r="S139" s="1"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>5</v>
       </c>
       <c r="B140" t="s">
         <v>288</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D140" t="s">
         <v>101</v>
       </c>
-      <c r="D140" s="1">
+      <c r="E140" s="1">
         <v>23</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>82</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_p6</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_p6.attachPop( O_5_bt_p6PopCallback);</v>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_p6PopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J140" t="s">
         <v>85</v>
       </c>
-      <c r="G140" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F140," O_",A140,"_",E140,REPT(" ",(20-(LEN(F140)+LEN(E140))))," = Nex",F140,"(",A140,", ",D140,", """,E140,""");")</f>
+      <c r="K140" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexButton O_5_bt_p6          = NexButton(5, 23, "bt_p6");</v>
       </c>
-      <c r="H140" t="s">
-        <v>202</v>
-      </c>
-      <c r="I140" s="1" t="s">
+      <c r="L140" t="s">
+        <v>202</v>
+      </c>
+      <c r="M140" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="N140" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O140" s="1"/>
-    </row>
-    <row r="141" spans="1:15">
+      <c r="S140" s="1"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>5</v>
       </c>
       <c r="B141" t="s">
         <v>288</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D141" t="s">
         <v>258</v>
       </c>
-      <c r="D141" s="1">
+      <c r="E141" s="1">
         <v>24</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>136</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_play</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_play.attachPop( O_5_bt_playPopCallback);</v>
+      </c>
+      <c r="I141" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_playPopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J141" t="s">
         <v>85</v>
       </c>
-      <c r="G141" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F141," O_",A141,"_",E141,REPT(" ",(20-(LEN(F141)+LEN(E141))))," = Nex",F141,"(",A141,", ",D141,", """,E141,""");")</f>
+      <c r="K141" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexButton O_5_bt_play        = NexButton(5, 24, "bt_play");</v>
       </c>
-      <c r="H141" t="s">
-        <v>202</v>
-      </c>
-      <c r="O141" s="1"/>
-    </row>
-    <row r="142" spans="1:15">
+      <c r="L141" t="s">
+        <v>202</v>
+      </c>
+      <c r="S141" s="1"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>5</v>
       </c>
       <c r="B142" t="s">
         <v>288</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D142" t="s">
         <v>258</v>
       </c>
-      <c r="D142" s="1">
+      <c r="E142" s="1">
         <v>25</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>137</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> O_5_bt_stop</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> O_5_bt_stop.attachPop( O_5_bt_stopPopCallback);</v>
+      </c>
+      <c r="I142" t="str">
+        <f t="shared" si="5"/>
+        <v>void  O_5_bt_stopPopCallback(void *ptr) { }</v>
+      </c>
+      <c r="J142" t="s">
         <v>85</v>
       </c>
-      <c r="G142" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F142," O_",A142,"_",E142,REPT(" ",(20-(LEN(F142)+LEN(E142))))," = Nex",F142,"(",A142,", ",D142,", """,E142,""");")</f>
+      <c r="K142" s="13" t="str">
+        <f t="shared" si="6"/>
         <v>NexButton O_5_bt_stop        = NexButton(5, 25, "bt_stop");</v>
       </c>
-      <c r="H142" t="s">
-        <v>202</v>
-      </c>
-      <c r="O142" s="1"/>
-    </row>
-    <row r="143" spans="1:15">
+      <c r="L142" t="s">
+        <v>202</v>
+      </c>
+      <c r="S142" s="1"/>
+    </row>
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" t="s">
         <v>283</v>
       </c>
-      <c r="D143" s="1">
+      <c r="C143"/>
+      <c r="E143" s="1">
         <v>0</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>283</v>
       </c>
-      <c r="F143" t="s">
+      <c r="J143" t="s">
         <v>284</v>
       </c>
-      <c r="G143" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F143," O_",A143,"_",E143,REPT(" ",(20-(LEN(F143)+LEN(E143))))," = Nex",F143,"(",A143,", ",D143,", """,E143,""");")</f>
+      <c r="K143" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J143," O_",A143,"_",F143,REPT(" ",(20-(LEN(J143)+LEN(F143))))," = Nex",J143,"(",A143,", ",E143,", """,F143,""");")</f>
         <v>NexPage O_6_midi             = NexPage(6, 0, "midi");</v>
       </c>
-      <c r="H143" t="s">
-        <v>202</v>
-      </c>
-      <c r="O143" s="1"/>
-    </row>
-    <row r="144" spans="1:15">
+      <c r="L143" t="s">
+        <v>202</v>
+      </c>
+      <c r="S143" s="1"/>
+    </row>
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" t="s">
         <v>283</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144"/>
+      <c r="D144" t="s">
         <v>87</v>
       </c>
-      <c r="D144" s="1">
+      <c r="E144" s="1">
         <v>1</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>70</v>
       </c>
-      <c r="F144" t="s">
+      <c r="J144" t="s">
         <v>37</v>
       </c>
-      <c r="G144" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F144," O_",A144,"_",E144,REPT(" ",(20-(LEN(F144)+LEN(E144))))," = Nex",F144,"(",A144,", ",D144,", """,E144,""");")</f>
+      <c r="K144" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J144," O_",A144,"_",F144,REPT(" ",(20-(LEN(J144)+LEN(F144))))," = Nex",J144,"(",A144,", ",E144,", """,F144,""");")</f>
         <v>NexHotspot O_6_bt_home       = NexHotspot(6, 1, "bt_home");</v>
       </c>
-      <c r="H144" t="s">
-        <v>202</v>
-      </c>
-      <c r="O144" s="1"/>
-    </row>
-    <row r="145" spans="1:15">
+      <c r="L144" t="s">
+        <v>202</v>
+      </c>
+      <c r="S144" s="1"/>
+    </row>
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" t="s">
         <v>283</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145"/>
+      <c r="D145" t="s">
         <v>259</v>
       </c>
-      <c r="D145" s="1">
+      <c r="E145" s="1">
         <v>2</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>190</v>
       </c>
-      <c r="F145" t="s">
+      <c r="J145" t="s">
         <v>25</v>
       </c>
-      <c r="G145" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F145," O_",A145,"_",E145,REPT(" ",(20-(LEN(F145)+LEN(E145))))," = Nex",F145,"(",A145,", ",D145,", """,E145,""");")</f>
+      <c r="K145" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J145," O_",A145,"_",F145,REPT(" ",(20-(LEN(J145)+LEN(F145))))," = Nex",J145,"(",A145,", ",E145,", """,F145,""");")</f>
         <v>NexText O_6_tx_midi          = NexText(6, 2, "tx_midi");</v>
       </c>
-      <c r="H145" t="s">
+      <c r="L145" t="s">
         <v>203</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="M145" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J145" s="1" t="s">
+      <c r="N145" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O145" s="1"/>
-    </row>
-    <row r="146" spans="1:15">
+      <c r="S145" s="1"/>
+    </row>
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
       <c r="B146" t="s">
         <v>283</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146"/>
+      <c r="D146" t="s">
         <v>143</v>
       </c>
-      <c r="D146" s="1">
+      <c r="E146" s="1">
         <v>3</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>39</v>
       </c>
-      <c r="F146" t="s">
+      <c r="J146" t="s">
         <v>37</v>
       </c>
-      <c r="G146" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F146," O_",A146,"_",E146,REPT(" ",(20-(LEN(F146)+LEN(E146))))," = Nex",F146,"(",A146,", ",D146,", """,E146,""");")</f>
+      <c r="K146" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J146," O_",A146,"_",F146,REPT(" ",(20-(LEN(J146)+LEN(F146))))," = Nex",J146,"(",A146,", ",E146,", """,F146,""");")</f>
         <v>NexHotspot O_6_bt_setup      = NexHotspot(6, 3, "bt_setup");</v>
       </c>
-      <c r="H146" t="s">
-        <v>202</v>
-      </c>
-      <c r="O146" s="1"/>
-    </row>
-    <row r="147" spans="1:15">
+      <c r="L146" t="s">
+        <v>202</v>
+      </c>
+      <c r="S146" s="1"/>
+    </row>
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
       <c r="B147" t="s">
         <v>283</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147"/>
+      <c r="D147" t="s">
         <v>261</v>
       </c>
-      <c r="D147" s="1">
+      <c r="E147" s="1">
         <v>4</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>191</v>
       </c>
-      <c r="F147" t="s">
+      <c r="J147" t="s">
         <v>192</v>
       </c>
-      <c r="G147" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F147," O_",A147,"_",E147,REPT(" ",(20-(LEN(F147)+LEN(E147))))," = Nex",F147,"(",A147,", ",D147,", """,E147,""");")</f>
+      <c r="K147" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J147," O_",A147,"_",F147,REPT(" ",(20-(LEN(J147)+LEN(F147))))," = Nex",J147,"(",A147,", ",E147,", """,F147,""");")</f>
         <v>NexPicture O_6_pt_logo_midi  = NexPicture(6, 4, "pt_logo_midi");</v>
       </c>
-      <c r="H147" t="s">
+      <c r="L147" t="s">
         <v>203</v>
       </c>
-      <c r="O147" s="1"/>
-    </row>
-    <row r="148" spans="1:15">
+      <c r="S147" s="1"/>
+    </row>
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
       <c r="B148" t="s">
         <v>283</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148"/>
+      <c r="D148" t="s">
         <v>260</v>
       </c>
-      <c r="D148" s="1">
+      <c r="E148" s="1">
         <v>5</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>186</v>
       </c>
-      <c r="F148" t="s">
+      <c r="J148" t="s">
         <v>25</v>
       </c>
-      <c r="G148" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F148," O_",A148,"_",E148,REPT(" ",(20-(LEN(F148)+LEN(E148))))," = Nex",F148,"(",A148,", ",D148,", """,E148,""");")</f>
+      <c r="K148" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J148," O_",A148,"_",F148,REPT(" ",(20-(LEN(J148)+LEN(F148))))," = Nex",J148,"(",A148,", ",E148,", """,F148,""");")</f>
         <v>NexText O_6_tx_artista       = NexText(6, 5, "tx_artista");</v>
       </c>
-      <c r="H148" t="s">
-        <v>202</v>
-      </c>
-      <c r="I148" s="1" t="s">
+      <c r="L148" t="s">
+        <v>202</v>
+      </c>
+      <c r="M148" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J148" s="1" t="s">
+      <c r="N148" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="O148" s="1"/>
-    </row>
-    <row r="149" spans="1:15">
+      <c r="S148" s="1"/>
+    </row>
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
       <c r="B149" t="s">
         <v>283</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149"/>
+      <c r="D149" t="s">
         <v>260</v>
       </c>
-      <c r="D149" s="1">
+      <c r="E149" s="1">
         <v>6</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>187</v>
       </c>
-      <c r="F149" t="s">
+      <c r="J149" t="s">
         <v>25</v>
       </c>
-      <c r="G149" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F149," O_",A149,"_",E149,REPT(" ",(20-(LEN(F149)+LEN(E149))))," = Nex",F149,"(",A149,", ",D149,", """,E149,""");")</f>
+      <c r="K149" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J149," O_",A149,"_",F149,REPT(" ",(20-(LEN(J149)+LEN(F149))))," = Nex",J149,"(",A149,", ",E149,", """,F149,""");")</f>
         <v>NexText O_6_tx_album         = NexText(6, 6, "tx_album");</v>
       </c>
-      <c r="H149" t="s">
-        <v>202</v>
-      </c>
-      <c r="I149" s="1" t="s">
+      <c r="L149" t="s">
+        <v>202</v>
+      </c>
+      <c r="M149" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J149" s="1" t="s">
+      <c r="N149" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="O149" s="1"/>
-    </row>
-    <row r="150" spans="1:15">
+      <c r="S149" s="1"/>
+    </row>
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
       <c r="B150" t="s">
         <v>283</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150"/>
+      <c r="D150" t="s">
         <v>260</v>
       </c>
-      <c r="D150" s="1">
+      <c r="E150" s="1">
         <v>7</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>188</v>
       </c>
-      <c r="F150" t="s">
+      <c r="J150" t="s">
         <v>25</v>
       </c>
-      <c r="G150" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F150," O_",A150,"_",E150,REPT(" ",(20-(LEN(F150)+LEN(E150))))," = Nex",F150,"(",A150,", ",D150,", """,E150,""");")</f>
+      <c r="K150" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J150," O_",A150,"_",F150,REPT(" ",(20-(LEN(J150)+LEN(F150))))," = Nex",J150,"(",A150,", ",E150,", """,F150,""");")</f>
         <v>NexText O_6_tx_musica        = NexText(6, 7, "tx_musica");</v>
       </c>
-      <c r="H150" t="s">
-        <v>202</v>
-      </c>
-      <c r="I150" s="1" t="s">
+      <c r="L150" t="s">
+        <v>202</v>
+      </c>
+      <c r="M150" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J150" s="1" t="s">
+      <c r="N150" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="O150" s="1"/>
-    </row>
-    <row r="151" spans="1:15">
+      <c r="S150" s="1"/>
+    </row>
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
       <c r="B151" t="s">
         <v>283</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151"/>
+      <c r="D151" t="s">
         <v>258</v>
       </c>
-      <c r="D151" s="1">
+      <c r="E151" s="1">
         <v>8</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>193</v>
       </c>
-      <c r="F151" t="s">
+      <c r="J151" t="s">
         <v>85</v>
       </c>
-      <c r="G151" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F151," O_",A151,"_",E151,REPT(" ",(20-(LEN(F151)+LEN(E151))))," = Nex",F151,"(",A151,", ",D151,", """,E151,""");")</f>
+      <c r="K151" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J151," O_",A151,"_",F151,REPT(" ",(20-(LEN(J151)+LEN(F151))))," = Nex",J151,"(",A151,", ",E151,", """,F151,""");")</f>
         <v>NexButton O_6_bt_midi_randon = NexButton(6, 8, "bt_midi_randon");</v>
       </c>
-      <c r="H151" t="s">
-        <v>202</v>
-      </c>
-      <c r="O151" s="1"/>
-    </row>
-    <row r="152" spans="1:15">
+      <c r="L151" t="s">
+        <v>202</v>
+      </c>
+      <c r="S151" s="1"/>
+    </row>
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6</v>
       </c>
       <c r="B152" t="s">
         <v>283</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152"/>
+      <c r="D152" t="s">
         <v>258</v>
       </c>
-      <c r="D152" s="1">
+      <c r="E152" s="1">
         <v>9</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>194</v>
       </c>
-      <c r="F152" t="s">
+      <c r="J152" t="s">
         <v>85</v>
       </c>
-      <c r="G152" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F152," O_",A152,"_",E152,REPT(" ",(20-(LEN(F152)+LEN(E152))))," = Nex",F152,"(",A152,", ",D152,", """,E152,""");")</f>
+      <c r="K152" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J152," O_",A152,"_",F152,REPT(" ",(20-(LEN(J152)+LEN(F152))))," = Nex",J152,"(",A152,", ",E152,", """,F152,""");")</f>
         <v>NexButton O_6_bt_midi_prev   = NexButton(6, 9, "bt_midi_prev");</v>
       </c>
-      <c r="H152" t="s">
-        <v>202</v>
-      </c>
-      <c r="O152" s="1"/>
-    </row>
-    <row r="153" spans="1:15">
+      <c r="L152" t="s">
+        <v>202</v>
+      </c>
+      <c r="S152" s="1"/>
+    </row>
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6</v>
       </c>
       <c r="B153" t="s">
         <v>283</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153"/>
+      <c r="D153" t="s">
         <v>258</v>
       </c>
-      <c r="D153" s="1">
+      <c r="E153" s="1">
         <v>10</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>195</v>
       </c>
-      <c r="F153" t="s">
+      <c r="J153" t="s">
         <v>85</v>
       </c>
-      <c r="G153" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F153," O_",A153,"_",E153,REPT(" ",(20-(LEN(F153)+LEN(E153))))," = Nex",F153,"(",A153,", ",D153,", """,E153,""");")</f>
+      <c r="K153" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J153," O_",A153,"_",F153,REPT(" ",(20-(LEN(J153)+LEN(F153))))," = Nex",J153,"(",A153,", ",E153,", """,F153,""");")</f>
         <v>NexButton O_6_bt_midi_play   = NexButton(6, 10, "bt_midi_play");</v>
       </c>
-      <c r="H153" t="s">
-        <v>202</v>
-      </c>
-      <c r="O153" s="1"/>
-    </row>
-    <row r="154" spans="1:15">
+      <c r="L153" t="s">
+        <v>202</v>
+      </c>
+      <c r="S153" s="1"/>
+    </row>
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6</v>
       </c>
       <c r="B154" t="s">
         <v>283</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154"/>
+      <c r="D154" t="s">
         <v>258</v>
       </c>
-      <c r="D154" s="1">
+      <c r="E154" s="1">
         <v>11</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>196</v>
       </c>
-      <c r="F154" t="s">
+      <c r="J154" t="s">
         <v>85</v>
       </c>
-      <c r="G154" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F154," O_",A154,"_",E154,REPT(" ",(20-(LEN(F154)+LEN(E154))))," = Nex",F154,"(",A154,", ",D154,", """,E154,""");")</f>
+      <c r="K154" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J154," O_",A154,"_",F154,REPT(" ",(20-(LEN(J154)+LEN(F154))))," = Nex",J154,"(",A154,", ",E154,", """,F154,""");")</f>
         <v>NexButton O_6_bt_midi_pause  = NexButton(6, 11, "bt_midi_pause");</v>
       </c>
-      <c r="H154" t="s">
-        <v>202</v>
-      </c>
-      <c r="O154" s="1"/>
-    </row>
-    <row r="155" spans="1:15">
+      <c r="L154" t="s">
+        <v>202</v>
+      </c>
+      <c r="S154" s="1"/>
+    </row>
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>6</v>
       </c>
       <c r="B155" t="s">
         <v>283</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155"/>
+      <c r="D155" t="s">
         <v>258</v>
       </c>
-      <c r="D155" s="1">
+      <c r="E155" s="1">
         <v>12</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>197</v>
       </c>
-      <c r="F155" t="s">
+      <c r="J155" t="s">
         <v>85</v>
       </c>
-      <c r="G155" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F155," O_",A155,"_",E155,REPT(" ",(20-(LEN(F155)+LEN(E155))))," = Nex",F155,"(",A155,", ",D155,", """,E155,""");")</f>
+      <c r="K155" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J155," O_",A155,"_",F155,REPT(" ",(20-(LEN(J155)+LEN(F155))))," = Nex",J155,"(",A155,", ",E155,", """,F155,""");")</f>
         <v>NexButton O_6_bt_midi_next   = NexButton(6, 12, "bt_midi_next");</v>
       </c>
-      <c r="H155" t="s">
-        <v>202</v>
-      </c>
-      <c r="O155" s="1"/>
-    </row>
-    <row r="156" spans="1:15">
+      <c r="L155" t="s">
+        <v>202</v>
+      </c>
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>6</v>
       </c>
       <c r="B156" t="s">
         <v>283</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156"/>
+      <c r="D156" t="s">
         <v>258</v>
       </c>
-      <c r="D156" s="1">
+      <c r="E156" s="1">
         <v>13</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>198</v>
       </c>
-      <c r="F156" t="s">
+      <c r="J156" t="s">
         <v>85</v>
       </c>
-      <c r="G156" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F156," O_",A156,"_",E156,REPT(" ",(20-(LEN(F156)+LEN(E156))))," = Nex",F156,"(",A156,", ",D156,", """,E156,""");")</f>
+      <c r="K156" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J156," O_",A156,"_",F156,REPT(" ",(20-(LEN(J156)+LEN(F156))))," = Nex",J156,"(",A156,", ",E156,", """,F156,""");")</f>
         <v>NexButton O_6_bt_midi_repeat = NexButton(6, 13, "bt_midi_repeat");</v>
       </c>
-      <c r="H156" t="s">
-        <v>202</v>
-      </c>
-      <c r="O156" s="1"/>
-    </row>
-    <row r="157" spans="1:15">
+      <c r="L156" t="s">
+        <v>202</v>
+      </c>
+      <c r="S156" s="1"/>
+    </row>
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6</v>
       </c>
       <c r="B157" t="s">
         <v>283</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157"/>
+      <c r="D157" t="s">
         <v>89</v>
       </c>
-      <c r="D157" s="1">
+      <c r="E157" s="1">
         <v>14</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>71</v>
       </c>
-      <c r="F157" t="s">
+      <c r="J157" t="s">
         <v>279</v>
       </c>
-      <c r="G157" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F157," O_",A157,"_",E157,REPT(" ",(20-(LEN(F157)+LEN(E157))))," = Nex",F157,"(",A157,", ",D157,", """,E157,""");")</f>
+      <c r="K157" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J157," O_",A157,"_",F157,REPT(" ",(20-(LEN(J157)+LEN(F157))))," = Nex",J157,"(",A157,", ",E157,", """,F157,""");")</f>
         <v>NexProgressBar O_6_pb_volume = NexProgressBar(6, 14, "pb_volume");</v>
       </c>
-      <c r="H157" t="s">
-        <v>202</v>
-      </c>
-      <c r="I157" s="1" t="s">
+      <c r="L157" t="s">
+        <v>202</v>
+      </c>
+      <c r="M157" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K157" s="1">
+      <c r="O157" s="1">
         <v>0</v>
       </c>
-      <c r="L157" s="1">
+      <c r="P157" s="1">
         <v>100</v>
       </c>
-      <c r="M157" s="1">
+      <c r="Q157" s="1">
         <v>0</v>
       </c>
-      <c r="N157" s="1">
+      <c r="R157" s="1">
         <v>15</v>
       </c>
-      <c r="O157" s="1">
+      <c r="S157" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>6</v>
       </c>
       <c r="B158" t="s">
         <v>283</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158"/>
+      <c r="D158" t="s">
         <v>89</v>
       </c>
-      <c r="D158" s="1">
+      <c r="E158" s="1">
         <v>15</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>133</v>
       </c>
-      <c r="F158" t="s">
+      <c r="J158" t="s">
         <v>85</v>
       </c>
-      <c r="G158" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F158," O_",A158,"_",E158,REPT(" ",(20-(LEN(F158)+LEN(E158))))," = Nex",F158,"(",A158,", ",D158,", """,E158,""");")</f>
+      <c r="K158" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J158," O_",A158,"_",F158,REPT(" ",(20-(LEN(J158)+LEN(F158))))," = Nex",J158,"(",A158,", ",E158,", """,F158,""");")</f>
         <v>NexButton O_6_bt_up          = NexButton(6, 15, "bt_up");</v>
       </c>
-      <c r="H158" t="s">
-        <v>202</v>
-      </c>
-      <c r="O158" s="1"/>
-    </row>
-    <row r="159" spans="1:15">
+      <c r="L158" t="s">
+        <v>202</v>
+      </c>
+      <c r="S158" s="1"/>
+    </row>
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>6</v>
       </c>
       <c r="B159" t="s">
         <v>283</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159"/>
+      <c r="D159" t="s">
         <v>89</v>
       </c>
-      <c r="D159" s="1">
+      <c r="E159" s="1">
         <v>16</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>134</v>
       </c>
-      <c r="F159" t="s">
+      <c r="J159" t="s">
         <v>85</v>
       </c>
-      <c r="G159" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F159," O_",A159,"_",E159,REPT(" ",(20-(LEN(F159)+LEN(E159))))," = Nex",F159,"(",A159,", ",D159,", """,E159,""");")</f>
+      <c r="K159" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J159," O_",A159,"_",F159,REPT(" ",(20-(LEN(J159)+LEN(F159))))," = Nex",J159,"(",A159,", ",E159,", """,F159,""");")</f>
         <v>NexButton O_6_bt_down        = NexButton(6, 16, "bt_down");</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>6</v>
       </c>
       <c r="B160" t="s">
         <v>283</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160"/>
+      <c r="D160" t="s">
         <v>89</v>
       </c>
-      <c r="D160" s="1">
+      <c r="E160" s="1">
         <v>17</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>72</v>
       </c>
-      <c r="F160" t="s">
+      <c r="J160" t="s">
         <v>280</v>
       </c>
-      <c r="G160" s="16" t="str">
-        <f>_xlfn.CONCAT("Nex",F160," O_",A160,"_",E160,REPT(" ",(20-(LEN(F160)+LEN(E160))))," = Nex",F160,"(",A160,", ",D160,", """,E160,""");")</f>
+      <c r="K160" s="13" t="str">
+        <f>_xlfn.CONCAT("Nex",J160," O_",A160,"_",F160,REPT(" ",(20-(LEN(J160)+LEN(F160))))," = Nex",J160,"(",A160,", ",E160,", """,F160,""");")</f>
         <v>NexDSButton O_6_bt_mute      = NexDSButton(6, 17, "bt_mute");</v>
-      </c>
-      <c r="J160" s="1">
-        <v>0</v>
-      </c>
-      <c r="K160" s="1">
-        <v>1</v>
       </c>
       <c r="N160" s="1">
         <v>0</v>
       </c>
+      <c r="O160" s="1">
+        <v>1</v>
+      </c>
+      <c r="R160" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N160" xr:uid="{5B348617-EA30-4965-BF17-B2EA19465609}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N159">
+  <autoFilter ref="A2:R160" xr:uid="{5B348617-EA30-4965-BF17-B2EA19465609}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="radio"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R159">
       <sortCondition ref="A10:A159"/>
-      <sortCondition ref="D10:D159"/>
+      <sortCondition ref="E10:E159"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O160">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:S160">
     <sortCondition ref="A3:A160"/>
-    <sortCondition ref="D3:D160"/>
+    <sortCondition ref="E3:E160"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6493,7 +7085,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
@@ -6508,7 +7100,7 @@
     <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>204</v>
       </c>
@@ -6531,7 +7123,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.2" customHeight="1">
+    <row r="2" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>207</v>
       </c>
@@ -6551,7 +7143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.2" customHeight="1">
+    <row r="3" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>3</v>
       </c>
@@ -6568,7 +7160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.2" customHeight="1">
+    <row r="4" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>5</v>
       </c>
@@ -6591,7 +7183,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.2" customHeight="1">
+    <row r="5" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>269</v>
       </c>
@@ -6623,7 +7215,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.2" customHeight="1">
+    <row r="6" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>9</v>
       </c>
@@ -6646,7 +7238,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.2" customHeight="1">
+    <row r="7" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>11</v>
       </c>
@@ -6666,7 +7258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.2" customHeight="1">
+    <row r="8" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>13</v>
       </c>
@@ -6683,7 +7275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.2" customHeight="1">
+    <row r="9" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>15</v>
       </c>
@@ -6703,7 +7295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.2" customHeight="1">
+    <row r="10" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>17</v>
       </c>
@@ -6720,7 +7312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.2" customHeight="1">
+    <row r="11" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>19</v>
       </c>
@@ -6737,7 +7329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.2" customHeight="1">
+    <row r="12" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>21</v>
       </c>
@@ -6757,7 +7349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.2" customHeight="1">
+    <row r="13" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>23</v>
       </c>
@@ -6777,7 +7369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.2" customHeight="1">
+    <row r="14" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>25</v>
       </c>
@@ -6794,7 +7386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.2" customHeight="1">
+    <row r="15" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>27</v>
       </c>
@@ -6814,7 +7406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.2" customHeight="1">
+    <row r="16" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>29</v>
       </c>
@@ -6828,7 +7420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="16.2" customHeight="1">
+    <row r="17" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>31</v>
       </c>
@@ -6842,7 +7434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="16.2" customHeight="1">
+    <row r="18" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>33</v>
       </c>
@@ -6856,7 +7448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="16.2" customHeight="1">
+    <row r="19" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>35</v>
       </c>
@@ -6870,7 +7462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="16.2" customHeight="1">
+    <row r="20" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>37</v>
       </c>
@@ -6884,7 +7476,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="16.2" customHeight="1">
+    <row r="21" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>39</v>
       </c>
@@ -6906,15 +7498,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB73713-AA2E-4E49-A6F9-85FED87295C2}">
-  <dimension ref="C5:M19"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="5:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>6.6666999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <f>B1+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>C1+$D$1</f>
+        <v>6.6666999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <f t="shared" ref="B3:B16" si="0">B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C16" si="1">C2+$D$1</f>
+        <v>13.333399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>20.0001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>26.666799999999999</v>
+      </c>
       <c r="E5">
         <v>8</v>
       </c>
@@ -6928,7 +7569,15 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="5:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>33.333500000000001</v>
+      </c>
       <c r="E6">
         <v>9</v>
       </c>
@@ -6949,7 +7598,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="5:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>40.0002</v>
+      </c>
       <c r="E7">
         <v>10</v>
       </c>
@@ -6958,7 +7615,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="5:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>46.666899999999998</v>
+      </c>
       <c r="E8">
         <v>11</v>
       </c>
@@ -6973,7 +7638,15 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="5:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>53.333599999999997</v>
+      </c>
       <c r="E9">
         <v>12</v>
       </c>
@@ -6988,7 +7661,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="5:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>60.000299999999996</v>
+      </c>
       <c r="E10">
         <v>13</v>
       </c>
@@ -6997,24 +7678,40 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="5:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>66.667000000000002</v>
+      </c>
       <c r="E11">
         <v>14</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F13" si="0">F10+22.5</f>
+        <f t="shared" ref="F11:F13" si="2">F10+22.5</f>
         <v>45</v>
       </c>
       <c r="J11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="5:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>73.333700000000007</v>
+      </c>
       <c r="E12">
         <v>15</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
       <c r="J12">
@@ -7022,31 +7719,68 @@
         <v>269.55</v>
       </c>
     </row>
-    <row r="13" spans="5:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>80.000400000000013</v>
+      </c>
       <c r="E13">
         <v>16</v>
       </c>
       <c r="F13">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>86.667100000000019</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>93.333800000000025</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>100.00050000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J18" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D18">
+      <c r="K18">
         <v>30400</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
-      <c r="C19" t="s">
+    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
         <v>275</v>
       </c>
-      <c r="D19">
+      <c r="K19">
         <v>77200</v>
       </c>
-      <c r="J19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
